--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_8_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_8_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66230.76025278619</v>
+        <v>79959.88664028433</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17830756.54751031</v>
+        <v>18383057.98799271</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21126708.64830595</v>
+        <v>21082152.59048191</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2801039.022161897</v>
+        <v>2787624.593309967</v>
       </c>
     </row>
     <row r="11">
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>66.85930902235421</v>
+        <v>55.88362148615999</v>
       </c>
       <c r="K11" t="n">
-        <v>66.89160419125324</v>
+        <v>50.44189372798084</v>
       </c>
       <c r="L11" t="n">
-        <v>58.75652045681615</v>
+        <v>38.34920004422723</v>
       </c>
       <c r="M11" t="n">
-        <v>44.58488518912007</v>
+        <v>21.8778091604332</v>
       </c>
       <c r="N11" t="n">
-        <v>42.27704711602587</v>
+        <v>19.20254685767773</v>
       </c>
       <c r="O11" t="n">
-        <v>48.67649131215622</v>
+        <v>26.88789503399079</v>
       </c>
       <c r="P11" t="n">
-        <v>64.19643144562944</v>
+        <v>45.60036861920611</v>
       </c>
       <c r="Q11" t="n">
-        <v>79.83741748749453</v>
+        <v>65.87254875688946</v>
       </c>
       <c r="R11" t="n">
-        <v>102.5176150018526</v>
+        <v>94.39435507525033</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,31 +8768,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>52.17609846406338</v>
+        <v>45.63905415849315</v>
       </c>
       <c r="K12" t="n">
-        <v>37.86348895248231</v>
+        <v>26.69063902916496</v>
       </c>
       <c r="L12" t="n">
-        <v>20.49834389404698</v>
+        <v>5.475068356827066</v>
       </c>
       <c r="M12" t="n">
-        <v>11.2115456193539</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>2.048060461573954</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>16.46232962463525</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>25.905898199832</v>
+        <v>12.69342733144536</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.09263685995591</v>
+        <v>41.26044998519077</v>
       </c>
       <c r="R12" t="n">
-        <v>71.01380490566048</v>
+        <v>70.50443987437902</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8848,25 +8850,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
-        <v>52.65320747019938</v>
+        <v>45.91378856574659</v>
       </c>
       <c r="L13" t="n">
-        <v>47.74285799352729</v>
+        <v>39.11872209654599</v>
       </c>
       <c r="M13" t="n">
-        <v>48.19887298505093</v>
+        <v>39.10593087476303</v>
       </c>
       <c r="N13" t="n">
-        <v>41.89382985982422</v>
+        <v>33.01709758919402</v>
       </c>
       <c r="O13" t="n">
-        <v>52.03260915047363</v>
+        <v>43.83351015779507</v>
       </c>
       <c r="P13" t="n">
-        <v>57.03832163257277</v>
+        <v>50.02257600621597</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.98740327762849</v>
+        <v>71.13006466034253</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>66.85930902235421</v>
+        <v>55.88362148615999</v>
       </c>
       <c r="K14" t="n">
-        <v>66.89160419125324</v>
+        <v>50.44189372798084</v>
       </c>
       <c r="L14" t="n">
-        <v>58.75652045681615</v>
+        <v>38.34920004422723</v>
       </c>
       <c r="M14" t="n">
-        <v>44.58488518912007</v>
+        <v>21.8778091604332</v>
       </c>
       <c r="N14" t="n">
-        <v>42.27704711602587</v>
+        <v>19.20254685767773</v>
       </c>
       <c r="O14" t="n">
-        <v>48.67649131215622</v>
+        <v>26.88789503399079</v>
       </c>
       <c r="P14" t="n">
-        <v>64.19643144562944</v>
+        <v>45.60036861920611</v>
       </c>
       <c r="Q14" t="n">
-        <v>79.83741748749453</v>
+        <v>65.87254875688946</v>
       </c>
       <c r="R14" t="n">
-        <v>102.5176150018526</v>
+        <v>94.39435507525033</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>52.17609846406338</v>
+        <v>45.63905415849315</v>
       </c>
       <c r="K15" t="n">
-        <v>37.86348895248231</v>
+        <v>26.69063902916496</v>
       </c>
       <c r="L15" t="n">
-        <v>20.49834389404698</v>
+        <v>5.475068356827066</v>
       </c>
       <c r="M15" t="n">
-        <v>11.2115456193539</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>2.048060461573954</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>16.46232962463525</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>25.905898199832</v>
+        <v>12.69342733144536</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.09263685995591</v>
+        <v>41.26044998519077</v>
       </c>
       <c r="R15" t="n">
-        <v>71.01380490566048</v>
+        <v>70.50443987437902</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9085,25 +9087,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K16" t="n">
-        <v>52.65320747019938</v>
+        <v>45.91378856574659</v>
       </c>
       <c r="L16" t="n">
-        <v>47.74285799352729</v>
+        <v>39.11872209654599</v>
       </c>
       <c r="M16" t="n">
-        <v>48.19887298505093</v>
+        <v>39.10593087476303</v>
       </c>
       <c r="N16" t="n">
-        <v>41.89382985982422</v>
+        <v>33.01709758919402</v>
       </c>
       <c r="O16" t="n">
-        <v>52.03260915047363</v>
+        <v>43.83351015779507</v>
       </c>
       <c r="P16" t="n">
-        <v>57.03832163257277</v>
+        <v>50.02257600621597</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.98740327762849</v>
+        <v>71.13006466034253</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>66.85930902235421</v>
+        <v>55.88362148615999</v>
       </c>
       <c r="K17" t="n">
-        <v>66.89160419125324</v>
+        <v>50.44189372798084</v>
       </c>
       <c r="L17" t="n">
-        <v>58.75652045681615</v>
+        <v>38.34920004422723</v>
       </c>
       <c r="M17" t="n">
-        <v>44.58488518912007</v>
+        <v>21.8778091604332</v>
       </c>
       <c r="N17" t="n">
-        <v>42.27704711602587</v>
+        <v>19.20254685767773</v>
       </c>
       <c r="O17" t="n">
-        <v>48.67649131215622</v>
+        <v>26.88789503399079</v>
       </c>
       <c r="P17" t="n">
-        <v>64.19643144562944</v>
+        <v>45.60036861920611</v>
       </c>
       <c r="Q17" t="n">
-        <v>79.83741748749453</v>
+        <v>65.87254875688946</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5176150018526</v>
+        <v>94.39435507525033</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>52.17609846406338</v>
+        <v>45.63905415849315</v>
       </c>
       <c r="K18" t="n">
-        <v>37.86348895248231</v>
+        <v>26.69063902916496</v>
       </c>
       <c r="L18" t="n">
-        <v>20.49834389404698</v>
+        <v>5.475068356827066</v>
       </c>
       <c r="M18" t="n">
-        <v>11.2115456193539</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>2.048060461573954</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>16.46232962463525</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>25.905898199832</v>
+        <v>12.69342733144536</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.09263685995591</v>
+        <v>41.26044998519077</v>
       </c>
       <c r="R18" t="n">
-        <v>71.01380490566048</v>
+        <v>70.50443987437902</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9322,25 +9324,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>52.65320747019938</v>
+        <v>45.91378856574659</v>
       </c>
       <c r="L19" t="n">
-        <v>47.74285799352729</v>
+        <v>39.11872209654599</v>
       </c>
       <c r="M19" t="n">
-        <v>48.19887298505093</v>
+        <v>39.10593087476303</v>
       </c>
       <c r="N19" t="n">
-        <v>41.89382985982422</v>
+        <v>33.01709758919402</v>
       </c>
       <c r="O19" t="n">
-        <v>52.03260915047363</v>
+        <v>43.83351015779507</v>
       </c>
       <c r="P19" t="n">
-        <v>57.03832163257277</v>
+        <v>50.02257600621597</v>
       </c>
       <c r="Q19" t="n">
-        <v>75.98740327762849</v>
+        <v>71.13006466034253</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>66.85930902235421</v>
+        <v>55.88362148615999</v>
       </c>
       <c r="K20" t="n">
-        <v>66.89160419125324</v>
+        <v>50.44189372798084</v>
       </c>
       <c r="L20" t="n">
-        <v>58.75652045681615</v>
+        <v>38.34920004422723</v>
       </c>
       <c r="M20" t="n">
-        <v>44.58488518912007</v>
+        <v>21.8778091604332</v>
       </c>
       <c r="N20" t="n">
-        <v>42.27704711602587</v>
+        <v>19.20254685767773</v>
       </c>
       <c r="O20" t="n">
-        <v>48.67649131215622</v>
+        <v>26.88789503399079</v>
       </c>
       <c r="P20" t="n">
-        <v>64.19643144562944</v>
+        <v>45.60036861920611</v>
       </c>
       <c r="Q20" t="n">
-        <v>79.83741748749453</v>
+        <v>65.87254875688946</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5176150018526</v>
+        <v>94.39435507525033</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>52.17609846406338</v>
+        <v>45.63905415849315</v>
       </c>
       <c r="K21" t="n">
-        <v>37.86348895248231</v>
+        <v>26.69063902916496</v>
       </c>
       <c r="L21" t="n">
-        <v>20.49834389404698</v>
+        <v>5.475068356827066</v>
       </c>
       <c r="M21" t="n">
-        <v>11.2115456193539</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>2.048060461573954</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>16.46232962463525</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>25.905898199832</v>
+        <v>12.69342733144536</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.09263685995591</v>
+        <v>41.26044998519077</v>
       </c>
       <c r="R21" t="n">
-        <v>71.01380490566048</v>
+        <v>70.50443987437902</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9559,25 +9561,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K22" t="n">
-        <v>52.65320747019938</v>
+        <v>45.91378856574659</v>
       </c>
       <c r="L22" t="n">
-        <v>47.74285799352729</v>
+        <v>39.11872209654599</v>
       </c>
       <c r="M22" t="n">
-        <v>48.19887298505093</v>
+        <v>39.10593087476303</v>
       </c>
       <c r="N22" t="n">
-        <v>41.89382985982422</v>
+        <v>33.01709758919402</v>
       </c>
       <c r="O22" t="n">
-        <v>52.03260915047363</v>
+        <v>43.83351015779507</v>
       </c>
       <c r="P22" t="n">
-        <v>57.03832163257277</v>
+        <v>50.02257600621597</v>
       </c>
       <c r="Q22" t="n">
-        <v>75.98740327762849</v>
+        <v>71.13006466034253</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>66.85930902235421</v>
+        <v>55.88362148615999</v>
       </c>
       <c r="K23" t="n">
-        <v>66.89160419125324</v>
+        <v>50.44189372798084</v>
       </c>
       <c r="L23" t="n">
-        <v>58.75652045681615</v>
+        <v>38.34920004422723</v>
       </c>
       <c r="M23" t="n">
-        <v>44.58488518912007</v>
+        <v>21.8778091604332</v>
       </c>
       <c r="N23" t="n">
-        <v>42.27704711602587</v>
+        <v>19.20254685767773</v>
       </c>
       <c r="O23" t="n">
-        <v>48.67649131215622</v>
+        <v>26.88789503399079</v>
       </c>
       <c r="P23" t="n">
-        <v>64.19643144562944</v>
+        <v>45.60036861920611</v>
       </c>
       <c r="Q23" t="n">
-        <v>79.83741748749453</v>
+        <v>65.87254875688946</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5176150018526</v>
+        <v>94.39435507525033</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>52.17609846406338</v>
+        <v>45.63905415849315</v>
       </c>
       <c r="K24" t="n">
-        <v>37.86348895248231</v>
+        <v>26.69063902916496</v>
       </c>
       <c r="L24" t="n">
-        <v>20.49834389404698</v>
+        <v>5.475068356827066</v>
       </c>
       <c r="M24" t="n">
-        <v>11.2115456193539</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>2.048060461573954</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>16.46232962463525</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>25.905898199832</v>
+        <v>12.69342733144536</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.09263685995591</v>
+        <v>41.26044998519077</v>
       </c>
       <c r="R24" t="n">
-        <v>71.01380490566048</v>
+        <v>70.50443987437902</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9796,25 +9798,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K25" t="n">
-        <v>52.65320747019938</v>
+        <v>45.91378856574659</v>
       </c>
       <c r="L25" t="n">
-        <v>47.74285799352729</v>
+        <v>39.11872209654599</v>
       </c>
       <c r="M25" t="n">
-        <v>48.19887298505093</v>
+        <v>39.10593087476303</v>
       </c>
       <c r="N25" t="n">
-        <v>41.89382985982422</v>
+        <v>33.01709758919402</v>
       </c>
       <c r="O25" t="n">
-        <v>52.03260915047363</v>
+        <v>43.83351015779507</v>
       </c>
       <c r="P25" t="n">
-        <v>57.03832163257277</v>
+        <v>50.02257600621597</v>
       </c>
       <c r="Q25" t="n">
-        <v>75.98740327762849</v>
+        <v>71.13006466034253</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>66.85930902235421</v>
+        <v>55.88362148615999</v>
       </c>
       <c r="K26" t="n">
-        <v>66.89160419125324</v>
+        <v>50.44189372798084</v>
       </c>
       <c r="L26" t="n">
-        <v>58.75652045681615</v>
+        <v>38.34920004422723</v>
       </c>
       <c r="M26" t="n">
-        <v>44.58488518912007</v>
+        <v>21.8778091604332</v>
       </c>
       <c r="N26" t="n">
-        <v>42.27704711602587</v>
+        <v>19.20254685767773</v>
       </c>
       <c r="O26" t="n">
-        <v>48.67649131215622</v>
+        <v>26.88789503399079</v>
       </c>
       <c r="P26" t="n">
-        <v>64.19643144562944</v>
+        <v>45.60036861920611</v>
       </c>
       <c r="Q26" t="n">
-        <v>79.83741748749453</v>
+        <v>65.87254875688946</v>
       </c>
       <c r="R26" t="n">
-        <v>102.5176150018526</v>
+        <v>94.39435507525033</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>52.17609846406338</v>
+        <v>45.63905415849315</v>
       </c>
       <c r="K27" t="n">
-        <v>37.86348895248231</v>
+        <v>26.69063902916496</v>
       </c>
       <c r="L27" t="n">
-        <v>20.49834389404698</v>
+        <v>5.475068356827066</v>
       </c>
       <c r="M27" t="n">
-        <v>11.2115456193539</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>2.048060461573954</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>16.46232962463525</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>25.905898199832</v>
+        <v>12.69342733144536</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.09263685995591</v>
+        <v>41.26044998519077</v>
       </c>
       <c r="R27" t="n">
-        <v>71.01380490566048</v>
+        <v>70.50443987437902</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10033,25 +10035,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K28" t="n">
-        <v>52.65320747019938</v>
+        <v>45.91378856574659</v>
       </c>
       <c r="L28" t="n">
-        <v>47.74285799352729</v>
+        <v>39.11872209654599</v>
       </c>
       <c r="M28" t="n">
-        <v>48.19887298505093</v>
+        <v>39.10593087476303</v>
       </c>
       <c r="N28" t="n">
-        <v>41.89382985982422</v>
+        <v>33.01709758919402</v>
       </c>
       <c r="O28" t="n">
-        <v>52.03260915047363</v>
+        <v>43.83351015779507</v>
       </c>
       <c r="P28" t="n">
-        <v>57.03832163257277</v>
+        <v>50.02257600621597</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.98740327762849</v>
+        <v>71.13006466034253</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>66.85930902235421</v>
+        <v>55.88362148615999</v>
       </c>
       <c r="K29" t="n">
-        <v>66.89160419125324</v>
+        <v>50.44189372798084</v>
       </c>
       <c r="L29" t="n">
-        <v>58.75652045681615</v>
+        <v>38.34920004422723</v>
       </c>
       <c r="M29" t="n">
-        <v>44.58488518912007</v>
+        <v>21.8778091604332</v>
       </c>
       <c r="N29" t="n">
-        <v>42.27704711602587</v>
+        <v>19.20254685767773</v>
       </c>
       <c r="O29" t="n">
-        <v>48.67649131215622</v>
+        <v>26.88789503399079</v>
       </c>
       <c r="P29" t="n">
-        <v>64.19643144562944</v>
+        <v>45.60036861920611</v>
       </c>
       <c r="Q29" t="n">
-        <v>79.83741748749453</v>
+        <v>65.87254875688946</v>
       </c>
       <c r="R29" t="n">
-        <v>102.5176150018526</v>
+        <v>94.39435507525033</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>52.17609846406338</v>
+        <v>45.63905415849315</v>
       </c>
       <c r="K30" t="n">
-        <v>37.86348895248231</v>
+        <v>26.69063902916496</v>
       </c>
       <c r="L30" t="n">
-        <v>20.49834389404698</v>
+        <v>5.475068356827066</v>
       </c>
       <c r="M30" t="n">
-        <v>11.2115456193539</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>2.048060461573954</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>16.46232962463525</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>25.905898199832</v>
+        <v>12.69342733144536</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.09263685995591</v>
+        <v>41.26044998519077</v>
       </c>
       <c r="R30" t="n">
-        <v>71.01380490566048</v>
+        <v>70.50443987437902</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10270,25 +10272,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K31" t="n">
-        <v>52.65320747019938</v>
+        <v>45.91378856574659</v>
       </c>
       <c r="L31" t="n">
-        <v>47.74285799352729</v>
+        <v>39.11872209654599</v>
       </c>
       <c r="M31" t="n">
-        <v>48.19887298505093</v>
+        <v>39.10593087476303</v>
       </c>
       <c r="N31" t="n">
-        <v>41.89382985982422</v>
+        <v>33.01709758919402</v>
       </c>
       <c r="O31" t="n">
-        <v>52.03260915047363</v>
+        <v>43.83351015779507</v>
       </c>
       <c r="P31" t="n">
-        <v>57.03832163257277</v>
+        <v>50.02257600621597</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.98740327762849</v>
+        <v>71.13006466034253</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>66.85930902235421</v>
+        <v>55.88362148615999</v>
       </c>
       <c r="K32" t="n">
-        <v>66.89160419125324</v>
+        <v>50.44189372798084</v>
       </c>
       <c r="L32" t="n">
-        <v>58.75652045681615</v>
+        <v>38.34920004422723</v>
       </c>
       <c r="M32" t="n">
-        <v>44.58488518912007</v>
+        <v>21.8778091604332</v>
       </c>
       <c r="N32" t="n">
-        <v>42.27704711602587</v>
+        <v>19.20254685767773</v>
       </c>
       <c r="O32" t="n">
-        <v>48.67649131215622</v>
+        <v>26.88789503399079</v>
       </c>
       <c r="P32" t="n">
-        <v>64.19643144562944</v>
+        <v>45.60036861920611</v>
       </c>
       <c r="Q32" t="n">
-        <v>79.83741748749453</v>
+        <v>65.87254875688946</v>
       </c>
       <c r="R32" t="n">
-        <v>102.5176150018526</v>
+        <v>94.39435507525033</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>52.17609846406338</v>
+        <v>45.63905415849315</v>
       </c>
       <c r="K33" t="n">
-        <v>37.86348895248231</v>
+        <v>26.69063902916496</v>
       </c>
       <c r="L33" t="n">
-        <v>20.49834389404698</v>
+        <v>5.475068356827066</v>
       </c>
       <c r="M33" t="n">
-        <v>11.2115456193539</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>2.048060461573954</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>16.46232962463525</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>25.905898199832</v>
+        <v>12.69342733144536</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.09263685995591</v>
+        <v>41.26044998519077</v>
       </c>
       <c r="R33" t="n">
-        <v>71.01380490566048</v>
+        <v>70.50443987437902</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10507,25 +10509,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K34" t="n">
-        <v>52.65320747019938</v>
+        <v>45.91378856574659</v>
       </c>
       <c r="L34" t="n">
-        <v>47.74285799352729</v>
+        <v>39.11872209654599</v>
       </c>
       <c r="M34" t="n">
-        <v>48.19887298505093</v>
+        <v>39.10593087476303</v>
       </c>
       <c r="N34" t="n">
-        <v>41.89382985982422</v>
+        <v>33.01709758919402</v>
       </c>
       <c r="O34" t="n">
-        <v>52.03260915047363</v>
+        <v>43.83351015779507</v>
       </c>
       <c r="P34" t="n">
-        <v>57.03832163257277</v>
+        <v>50.02257600621597</v>
       </c>
       <c r="Q34" t="n">
-        <v>75.98740327762849</v>
+        <v>71.13006466034253</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>66.85930902235421</v>
+        <v>55.88362148615999</v>
       </c>
       <c r="K35" t="n">
-        <v>66.89160419125324</v>
+        <v>50.44189372798084</v>
       </c>
       <c r="L35" t="n">
-        <v>58.75652045681615</v>
+        <v>38.34920004422723</v>
       </c>
       <c r="M35" t="n">
-        <v>44.58488518912007</v>
+        <v>21.8778091604332</v>
       </c>
       <c r="N35" t="n">
-        <v>42.27704711602587</v>
+        <v>19.20254685767773</v>
       </c>
       <c r="O35" t="n">
-        <v>48.67649131215622</v>
+        <v>26.88789503399079</v>
       </c>
       <c r="P35" t="n">
-        <v>64.19643144562944</v>
+        <v>45.60036861920611</v>
       </c>
       <c r="Q35" t="n">
-        <v>79.83741748749453</v>
+        <v>65.87254875688946</v>
       </c>
       <c r="R35" t="n">
-        <v>102.5176150018526</v>
+        <v>94.39435507525033</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>52.17609846406338</v>
+        <v>45.63905415849315</v>
       </c>
       <c r="K36" t="n">
-        <v>37.86348895248231</v>
+        <v>26.69063902916496</v>
       </c>
       <c r="L36" t="n">
-        <v>20.49834389404698</v>
+        <v>5.475068356827066</v>
       </c>
       <c r="M36" t="n">
-        <v>11.2115456193539</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>2.048060461573954</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>16.46232962463525</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>25.905898199832</v>
+        <v>12.69342733144536</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.09263685995591</v>
+        <v>41.26044998519077</v>
       </c>
       <c r="R36" t="n">
-        <v>71.01380490566048</v>
+        <v>70.50443987437902</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10744,25 +10746,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K37" t="n">
-        <v>52.65320747019938</v>
+        <v>45.91378856574659</v>
       </c>
       <c r="L37" t="n">
-        <v>47.74285799352729</v>
+        <v>39.11872209654599</v>
       </c>
       <c r="M37" t="n">
-        <v>48.19887298505093</v>
+        <v>39.10593087476303</v>
       </c>
       <c r="N37" t="n">
-        <v>41.89382985982422</v>
+        <v>33.01709758919402</v>
       </c>
       <c r="O37" t="n">
-        <v>52.03260915047363</v>
+        <v>43.83351015779507</v>
       </c>
       <c r="P37" t="n">
-        <v>57.03832163257277</v>
+        <v>50.02257600621597</v>
       </c>
       <c r="Q37" t="n">
-        <v>75.98740327762849</v>
+        <v>71.13006466034253</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>66.85930902235421</v>
+        <v>55.88362148615999</v>
       </c>
       <c r="K38" t="n">
-        <v>66.89160419125324</v>
+        <v>50.44189372798084</v>
       </c>
       <c r="L38" t="n">
-        <v>58.75652045681615</v>
+        <v>38.34920004422723</v>
       </c>
       <c r="M38" t="n">
-        <v>44.58488518912007</v>
+        <v>21.8778091604332</v>
       </c>
       <c r="N38" t="n">
-        <v>42.27704711602587</v>
+        <v>19.20254685767773</v>
       </c>
       <c r="O38" t="n">
-        <v>48.67649131215622</v>
+        <v>26.88789503399079</v>
       </c>
       <c r="P38" t="n">
-        <v>64.19643144562944</v>
+        <v>45.60036861920611</v>
       </c>
       <c r="Q38" t="n">
-        <v>79.83741748749453</v>
+        <v>65.87254875688946</v>
       </c>
       <c r="R38" t="n">
-        <v>102.5176150018526</v>
+        <v>94.39435507525033</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10901,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>52.17609846406338</v>
+        <v>45.63905415849315</v>
       </c>
       <c r="K39" t="n">
-        <v>37.86348895248231</v>
+        <v>26.69063902916496</v>
       </c>
       <c r="L39" t="n">
-        <v>20.49834389404698</v>
+        <v>5.475068356827066</v>
       </c>
       <c r="M39" t="n">
-        <v>11.2115456193539</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>2.048060461573954</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>16.46232962463525</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>25.905898199832</v>
+        <v>12.69342733144536</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.09263685995591</v>
+        <v>41.26044998519077</v>
       </c>
       <c r="R39" t="n">
-        <v>71.01380490566048</v>
+        <v>70.50443987437902</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10981,25 +10983,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K40" t="n">
-        <v>52.65320747019938</v>
+        <v>45.91378856574659</v>
       </c>
       <c r="L40" t="n">
-        <v>47.74285799352729</v>
+        <v>39.11872209654599</v>
       </c>
       <c r="M40" t="n">
-        <v>48.19887298505093</v>
+        <v>39.10593087476303</v>
       </c>
       <c r="N40" t="n">
-        <v>41.89382985982422</v>
+        <v>33.01709758919402</v>
       </c>
       <c r="O40" t="n">
-        <v>52.03260915047363</v>
+        <v>43.83351015779507</v>
       </c>
       <c r="P40" t="n">
-        <v>57.03832163257277</v>
+        <v>50.02257600621597</v>
       </c>
       <c r="Q40" t="n">
-        <v>75.98740327762849</v>
+        <v>71.13006466034253</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>66.85930902235421</v>
+        <v>55.88362148615999</v>
       </c>
       <c r="K41" t="n">
-        <v>66.89160419125324</v>
+        <v>50.44189372798084</v>
       </c>
       <c r="L41" t="n">
-        <v>58.75652045681615</v>
+        <v>38.34920004422723</v>
       </c>
       <c r="M41" t="n">
-        <v>44.58488518912007</v>
+        <v>21.8778091604332</v>
       </c>
       <c r="N41" t="n">
-        <v>42.27704711602587</v>
+        <v>19.20254685767773</v>
       </c>
       <c r="O41" t="n">
-        <v>48.67649131215622</v>
+        <v>26.88789503399079</v>
       </c>
       <c r="P41" t="n">
-        <v>64.19643144562944</v>
+        <v>45.60036861920611</v>
       </c>
       <c r="Q41" t="n">
-        <v>79.83741748749453</v>
+        <v>65.87254875688946</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5176150018526</v>
+        <v>94.39435507525033</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>52.17609846406338</v>
+        <v>45.63905415849315</v>
       </c>
       <c r="K42" t="n">
-        <v>37.86348895248231</v>
+        <v>26.69063902916496</v>
       </c>
       <c r="L42" t="n">
-        <v>20.49834389404698</v>
+        <v>5.475068356827066</v>
       </c>
       <c r="M42" t="n">
-        <v>11.2115456193539</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>2.048060461573954</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>16.46232962463525</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>25.905898199832</v>
+        <v>12.69342733144536</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.09263685995591</v>
+        <v>41.26044998519077</v>
       </c>
       <c r="R42" t="n">
-        <v>71.01380490566048</v>
+        <v>70.50443987437902</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11218,25 +11220,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K43" t="n">
-        <v>52.65320747019938</v>
+        <v>45.91378856574659</v>
       </c>
       <c r="L43" t="n">
-        <v>47.74285799352729</v>
+        <v>39.11872209654599</v>
       </c>
       <c r="M43" t="n">
-        <v>48.19887298505093</v>
+        <v>39.10593087476303</v>
       </c>
       <c r="N43" t="n">
-        <v>41.89382985982422</v>
+        <v>33.01709758919402</v>
       </c>
       <c r="O43" t="n">
-        <v>52.03260915047363</v>
+        <v>43.83351015779507</v>
       </c>
       <c r="P43" t="n">
-        <v>57.03832163257277</v>
+        <v>50.02257600621597</v>
       </c>
       <c r="Q43" t="n">
-        <v>75.98740327762849</v>
+        <v>71.13006466034253</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>66.85930902235421</v>
+        <v>46.74967917541601</v>
       </c>
       <c r="K44" t="n">
-        <v>66.89160419125324</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L44" t="n">
-        <v>58.75652045681615</v>
+        <v>21.36627421377045</v>
       </c>
       <c r="M44" t="n">
-        <v>44.58488518912007</v>
+        <v>2.981031914565961</v>
       </c>
       <c r="N44" t="n">
-        <v>42.27704711602587</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>48.67649131215622</v>
+        <v>8.75547455640654</v>
       </c>
       <c r="P44" t="n">
-        <v>64.19643144562944</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q44" t="n">
-        <v>79.83741748749453</v>
+        <v>54.25101662582001</v>
       </c>
       <c r="R44" t="n">
-        <v>102.5176150018526</v>
+        <v>87.63419656125427</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>52.17609846406338</v>
+        <v>40.19894069198317</v>
       </c>
       <c r="K45" t="n">
-        <v>37.86348895248231</v>
+        <v>17.39261862637501</v>
       </c>
       <c r="L45" t="n">
-        <v>20.49834389404698</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>11.2115456193539</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>2.048060461573954</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>16.46232962463525</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>25.905898199832</v>
+        <v>1.698038997342408</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.09263685995591</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R45" t="n">
-        <v>71.01380490566048</v>
+        <v>66.92938550216252</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11455,25 +11457,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
-        <v>52.65320747019938</v>
+        <v>40.30525941636866</v>
       </c>
       <c r="L46" t="n">
-        <v>47.74285799352729</v>
+        <v>31.94173573434517</v>
       </c>
       <c r="M46" t="n">
-        <v>48.19887298505093</v>
+        <v>31.538805043564</v>
       </c>
       <c r="N46" t="n">
-        <v>41.89382985982422</v>
+        <v>25.62990109690304</v>
       </c>
       <c r="O46" t="n">
-        <v>52.03260915047363</v>
+        <v>37.0102385447647</v>
       </c>
       <c r="P46" t="n">
-        <v>57.03832163257277</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q46" t="n">
-        <v>75.98740327762849</v>
+        <v>67.08779846355691</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>408.4323500200001</v>
+        <v>408.3030322092966</v>
       </c>
       <c r="H11" t="n">
-        <v>314.7099853831353</v>
+        <v>313.3856093542684</v>
       </c>
       <c r="I11" t="n">
-        <v>113.8693593270194</v>
+        <v>108.8838344298736</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>151.2037672717813</v>
+        <v>148.2569376603758</v>
       </c>
       <c r="T11" t="n">
-        <v>218.6444459974996</v>
+        <v>218.0783572811451</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1473000347972</v>
+        <v>253.1369546099409</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
@@ -23349,13 +23351,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>118.5388453083828</v>
+        <v>118.4696541797598</v>
       </c>
       <c r="H12" t="n">
-        <v>84.320299612958</v>
+        <v>83.65205897599289</v>
       </c>
       <c r="I12" t="n">
-        <v>37.86294566882081</v>
+        <v>35.48070724912226</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.786554340597835</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>127.6305556124798</v>
+        <v>126.3453607452921</v>
       </c>
       <c r="T12" t="n">
-        <v>173.9226398638123</v>
+        <v>173.6437510602833</v>
       </c>
       <c r="U12" t="n">
-        <v>207.9414346223241</v>
+        <v>207.9368825743884</v>
       </c>
       <c r="V12" t="n">
         <v>220.3146016126436</v>
@@ -23428,16 +23430,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3029221927327</v>
+        <v>166.2449146747757</v>
       </c>
       <c r="H13" t="n">
-        <v>151.5357458635549</v>
+        <v>151.0200062948104</v>
       </c>
       <c r="I13" t="n">
-        <v>123.6862121416195</v>
+        <v>121.9417678743324</v>
       </c>
       <c r="J13" t="n">
-        <v>11.085091836852</v>
+        <v>6.983960317295718</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>110.585143828612</v>
+        <v>107.9769148848387</v>
       </c>
       <c r="S13" t="n">
-        <v>196.1071114281788</v>
+        <v>195.0961985925109</v>
       </c>
       <c r="T13" t="n">
-        <v>232.2142445012334</v>
+        <v>231.9663941972356</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5697534131281</v>
+        <v>282.5665893666941</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
@@ -23507,13 +23509,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>408.4323500200001</v>
+        <v>408.3030322092966</v>
       </c>
       <c r="H14" t="n">
-        <v>314.7099853831353</v>
+        <v>313.3856093542684</v>
       </c>
       <c r="I14" t="n">
-        <v>113.8693593270194</v>
+        <v>108.8838344298736</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>151.2037672717813</v>
+        <v>148.2569376603758</v>
       </c>
       <c r="T14" t="n">
-        <v>218.6444459974996</v>
+        <v>218.0783572811451</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1473000347972</v>
+        <v>253.1369546099409</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -23586,13 +23588,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>118.5388453083828</v>
+        <v>118.4696541797598</v>
       </c>
       <c r="H15" t="n">
-        <v>84.320299612958</v>
+        <v>83.65205897599289</v>
       </c>
       <c r="I15" t="n">
-        <v>37.86294566882081</v>
+        <v>35.48070724912226</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.786554340597835</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>127.6305556124798</v>
+        <v>126.3453607452921</v>
       </c>
       <c r="T15" t="n">
-        <v>173.9226398638123</v>
+        <v>173.6437510602833</v>
       </c>
       <c r="U15" t="n">
-        <v>207.9414346223241</v>
+        <v>207.9368825743884</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
@@ -23665,16 +23667,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3029221927327</v>
+        <v>166.2449146747757</v>
       </c>
       <c r="H16" t="n">
-        <v>151.5357458635549</v>
+        <v>151.0200062948104</v>
       </c>
       <c r="I16" t="n">
-        <v>123.6862121416195</v>
+        <v>121.9417678743324</v>
       </c>
       <c r="J16" t="n">
-        <v>11.085091836852</v>
+        <v>6.983960317295718</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>110.585143828612</v>
+        <v>107.9769148848387</v>
       </c>
       <c r="S16" t="n">
-        <v>196.1071114281788</v>
+        <v>195.0961985925109</v>
       </c>
       <c r="T16" t="n">
-        <v>232.2142445012334</v>
+        <v>231.9663941972356</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5697534131281</v>
+        <v>282.5665893666941</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
@@ -23744,13 +23746,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>408.4323500200001</v>
+        <v>408.3030322092966</v>
       </c>
       <c r="H17" t="n">
-        <v>314.7099853831353</v>
+        <v>313.3856093542684</v>
       </c>
       <c r="I17" t="n">
-        <v>113.8693593270194</v>
+        <v>108.8838344298736</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>151.2037672717813</v>
+        <v>148.2569376603758</v>
       </c>
       <c r="T17" t="n">
-        <v>218.6444459974996</v>
+        <v>218.0783572811451</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1473000347972</v>
+        <v>253.1369546099409</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
@@ -23823,13 +23825,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>118.5388453083828</v>
+        <v>118.4696541797598</v>
       </c>
       <c r="H18" t="n">
-        <v>84.320299612958</v>
+        <v>83.65205897599289</v>
       </c>
       <c r="I18" t="n">
-        <v>37.86294566882081</v>
+        <v>35.48070724912226</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.786554340597835</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>127.6305556124798</v>
+        <v>126.3453607452921</v>
       </c>
       <c r="T18" t="n">
-        <v>173.9226398638123</v>
+        <v>173.6437510602833</v>
       </c>
       <c r="U18" t="n">
-        <v>207.9414346223241</v>
+        <v>207.9368825743884</v>
       </c>
       <c r="V18" t="n">
         <v>220.3146016126436</v>
@@ -23902,16 +23904,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3029221927327</v>
+        <v>166.2449146747757</v>
       </c>
       <c r="H19" t="n">
-        <v>151.5357458635549</v>
+        <v>151.0200062948104</v>
       </c>
       <c r="I19" t="n">
-        <v>123.6862121416195</v>
+        <v>121.9417678743324</v>
       </c>
       <c r="J19" t="n">
-        <v>11.085091836852</v>
+        <v>6.983960317295718</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>110.585143828612</v>
+        <v>107.9769148848387</v>
       </c>
       <c r="S19" t="n">
-        <v>196.1071114281788</v>
+        <v>195.0961985925109</v>
       </c>
       <c r="T19" t="n">
-        <v>232.2142445012334</v>
+        <v>231.9663941972356</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5697534131281</v>
+        <v>282.5665893666941</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
@@ -23981,13 +23983,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>408.4323500200001</v>
+        <v>408.3030322092966</v>
       </c>
       <c r="H20" t="n">
-        <v>314.7099853831353</v>
+        <v>313.3856093542684</v>
       </c>
       <c r="I20" t="n">
-        <v>113.8693593270194</v>
+        <v>108.8838344298736</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>151.2037672717813</v>
+        <v>148.2569376603758</v>
       </c>
       <c r="T20" t="n">
-        <v>218.6444459974996</v>
+        <v>218.0783572811451</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1473000347972</v>
+        <v>253.1369546099409</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -24060,13 +24062,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>118.5388453083828</v>
+        <v>118.4696541797598</v>
       </c>
       <c r="H21" t="n">
-        <v>84.320299612958</v>
+        <v>83.65205897599289</v>
       </c>
       <c r="I21" t="n">
-        <v>37.86294566882081</v>
+        <v>35.48070724912226</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.786554340597835</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>127.6305556124798</v>
+        <v>126.3453607452921</v>
       </c>
       <c r="T21" t="n">
-        <v>173.9226398638123</v>
+        <v>173.6437510602833</v>
       </c>
       <c r="U21" t="n">
-        <v>207.9414346223241</v>
+        <v>207.9368825743884</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
@@ -24139,16 +24141,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3029221927327</v>
+        <v>166.2449146747757</v>
       </c>
       <c r="H22" t="n">
-        <v>151.5357458635549</v>
+        <v>151.0200062948104</v>
       </c>
       <c r="I22" t="n">
-        <v>123.6862121416195</v>
+        <v>121.9417678743324</v>
       </c>
       <c r="J22" t="n">
-        <v>11.085091836852</v>
+        <v>6.983960317295718</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>110.585143828612</v>
+        <v>107.9769148848387</v>
       </c>
       <c r="S22" t="n">
-        <v>196.1071114281788</v>
+        <v>195.0961985925109</v>
       </c>
       <c r="T22" t="n">
-        <v>232.2142445012334</v>
+        <v>231.9663941972356</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5697534131281</v>
+        <v>282.5665893666941</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -24218,13 +24220,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>408.4323500200001</v>
+        <v>408.3030322092966</v>
       </c>
       <c r="H23" t="n">
-        <v>314.7099853831353</v>
+        <v>313.3856093542684</v>
       </c>
       <c r="I23" t="n">
-        <v>113.8693593270194</v>
+        <v>108.8838344298736</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>151.2037672717813</v>
+        <v>148.2569376603758</v>
       </c>
       <c r="T23" t="n">
-        <v>218.6444459974996</v>
+        <v>218.0783572811451</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1473000347972</v>
+        <v>253.1369546099409</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24297,13 +24299,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>118.5388453083828</v>
+        <v>118.4696541797598</v>
       </c>
       <c r="H24" t="n">
-        <v>84.320299612958</v>
+        <v>83.65205897599289</v>
       </c>
       <c r="I24" t="n">
-        <v>37.86294566882081</v>
+        <v>35.48070724912226</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.786554340597835</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>127.6305556124798</v>
+        <v>126.3453607452921</v>
       </c>
       <c r="T24" t="n">
-        <v>173.9226398638123</v>
+        <v>173.6437510602833</v>
       </c>
       <c r="U24" t="n">
-        <v>207.9414346223241</v>
+        <v>207.9368825743884</v>
       </c>
       <c r="V24" t="n">
         <v>220.3146016126436</v>
@@ -24376,16 +24378,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3029221927327</v>
+        <v>166.2449146747757</v>
       </c>
       <c r="H25" t="n">
-        <v>151.5357458635549</v>
+        <v>151.0200062948104</v>
       </c>
       <c r="I25" t="n">
-        <v>123.6862121416195</v>
+        <v>121.9417678743324</v>
       </c>
       <c r="J25" t="n">
-        <v>11.085091836852</v>
+        <v>6.983960317295718</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>110.585143828612</v>
+        <v>107.9769148848387</v>
       </c>
       <c r="S25" t="n">
-        <v>196.1071114281788</v>
+        <v>195.0961985925109</v>
       </c>
       <c r="T25" t="n">
-        <v>232.2142445012334</v>
+        <v>231.9663941972356</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5697534131281</v>
+        <v>282.5665893666941</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
@@ -24455,13 +24457,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>408.4323500200001</v>
+        <v>408.3030322092966</v>
       </c>
       <c r="H26" t="n">
-        <v>314.7099853831353</v>
+        <v>313.3856093542684</v>
       </c>
       <c r="I26" t="n">
-        <v>113.8693593270194</v>
+        <v>108.8838344298736</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>151.2037672717813</v>
+        <v>148.2569376603758</v>
       </c>
       <c r="T26" t="n">
-        <v>218.6444459974996</v>
+        <v>218.0783572811451</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1473000347972</v>
+        <v>253.1369546099409</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -24534,13 +24536,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>118.5388453083828</v>
+        <v>118.4696541797598</v>
       </c>
       <c r="H27" t="n">
-        <v>84.320299612958</v>
+        <v>83.65205897599289</v>
       </c>
       <c r="I27" t="n">
-        <v>37.86294566882081</v>
+        <v>35.48070724912226</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.786554340597835</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>127.6305556124798</v>
+        <v>126.3453607452921</v>
       </c>
       <c r="T27" t="n">
-        <v>173.9226398638123</v>
+        <v>173.6437510602833</v>
       </c>
       <c r="U27" t="n">
-        <v>207.9414346223241</v>
+        <v>207.9368825743884</v>
       </c>
       <c r="V27" t="n">
         <v>220.3146016126436</v>
@@ -24613,16 +24615,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3029221927327</v>
+        <v>166.2449146747757</v>
       </c>
       <c r="H28" t="n">
-        <v>151.5357458635549</v>
+        <v>151.0200062948104</v>
       </c>
       <c r="I28" t="n">
-        <v>123.6862121416195</v>
+        <v>121.9417678743324</v>
       </c>
       <c r="J28" t="n">
-        <v>11.085091836852</v>
+        <v>6.983960317295718</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>110.585143828612</v>
+        <v>107.9769148848387</v>
       </c>
       <c r="S28" t="n">
-        <v>196.1071114281788</v>
+        <v>195.0961985925109</v>
       </c>
       <c r="T28" t="n">
-        <v>232.2142445012334</v>
+        <v>231.9663941972356</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5697534131281</v>
+        <v>282.5665893666941</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -24692,13 +24694,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>408.4323500200001</v>
+        <v>408.3030322092966</v>
       </c>
       <c r="H29" t="n">
-        <v>314.7099853831353</v>
+        <v>313.3856093542684</v>
       </c>
       <c r="I29" t="n">
-        <v>113.8693593270194</v>
+        <v>108.8838344298736</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>151.2037672717813</v>
+        <v>148.2569376603758</v>
       </c>
       <c r="T29" t="n">
-        <v>218.6444459974996</v>
+        <v>218.0783572811451</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1473000347972</v>
+        <v>253.1369546099409</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -24771,13 +24773,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>118.5388453083828</v>
+        <v>118.4696541797598</v>
       </c>
       <c r="H30" t="n">
-        <v>84.320299612958</v>
+        <v>83.65205897599289</v>
       </c>
       <c r="I30" t="n">
-        <v>37.86294566882081</v>
+        <v>35.48070724912226</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.786554340597835</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>127.6305556124798</v>
+        <v>126.3453607452921</v>
       </c>
       <c r="T30" t="n">
-        <v>173.9226398638123</v>
+        <v>173.6437510602833</v>
       </c>
       <c r="U30" t="n">
-        <v>207.9414346223241</v>
+        <v>207.9368825743884</v>
       </c>
       <c r="V30" t="n">
         <v>220.3146016126436</v>
@@ -24850,16 +24852,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3029221927327</v>
+        <v>166.2449146747757</v>
       </c>
       <c r="H31" t="n">
-        <v>151.5357458635549</v>
+        <v>151.0200062948104</v>
       </c>
       <c r="I31" t="n">
-        <v>123.6862121416195</v>
+        <v>121.9417678743324</v>
       </c>
       <c r="J31" t="n">
-        <v>11.085091836852</v>
+        <v>6.983960317295718</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>110.585143828612</v>
+        <v>107.9769148848387</v>
       </c>
       <c r="S31" t="n">
-        <v>196.1071114281788</v>
+        <v>195.0961985925109</v>
       </c>
       <c r="T31" t="n">
-        <v>232.2142445012334</v>
+        <v>231.9663941972356</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5697534131281</v>
+        <v>282.5665893666941</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
@@ -24929,13 +24931,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>408.4323500200001</v>
+        <v>408.3030322092966</v>
       </c>
       <c r="H32" t="n">
-        <v>314.7099853831353</v>
+        <v>313.3856093542684</v>
       </c>
       <c r="I32" t="n">
-        <v>113.8693593270194</v>
+        <v>108.8838344298736</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>151.2037672717813</v>
+        <v>148.2569376603758</v>
       </c>
       <c r="T32" t="n">
-        <v>218.6444459974996</v>
+        <v>218.0783572811451</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1473000347972</v>
+        <v>253.1369546099409</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -25008,13 +25010,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>118.5388453083828</v>
+        <v>118.4696541797598</v>
       </c>
       <c r="H33" t="n">
-        <v>84.320299612958</v>
+        <v>83.65205897599289</v>
       </c>
       <c r="I33" t="n">
-        <v>37.86294566882081</v>
+        <v>35.48070724912226</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.786554340597835</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>127.6305556124798</v>
+        <v>126.3453607452921</v>
       </c>
       <c r="T33" t="n">
-        <v>173.9226398638123</v>
+        <v>173.6437510602833</v>
       </c>
       <c r="U33" t="n">
-        <v>207.9414346223241</v>
+        <v>207.9368825743884</v>
       </c>
       <c r="V33" t="n">
         <v>220.3146016126436</v>
@@ -25087,16 +25089,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3029221927327</v>
+        <v>166.2449146747757</v>
       </c>
       <c r="H34" t="n">
-        <v>151.5357458635549</v>
+        <v>151.0200062948104</v>
       </c>
       <c r="I34" t="n">
-        <v>123.6862121416195</v>
+        <v>121.9417678743324</v>
       </c>
       <c r="J34" t="n">
-        <v>11.085091836852</v>
+        <v>6.983960317295718</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>110.585143828612</v>
+        <v>107.9769148848387</v>
       </c>
       <c r="S34" t="n">
-        <v>196.1071114281788</v>
+        <v>195.0961985925109</v>
       </c>
       <c r="T34" t="n">
-        <v>232.2142445012334</v>
+        <v>231.9663941972356</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5697534131281</v>
+        <v>282.5665893666941</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -25166,13 +25168,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>408.4323500200001</v>
+        <v>408.3030322092966</v>
       </c>
       <c r="H35" t="n">
-        <v>314.7099853831353</v>
+        <v>313.3856093542684</v>
       </c>
       <c r="I35" t="n">
-        <v>113.8693593270194</v>
+        <v>108.8838344298736</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>151.2037672717813</v>
+        <v>148.2569376603758</v>
       </c>
       <c r="T35" t="n">
-        <v>218.6444459974996</v>
+        <v>218.0783572811451</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1473000347972</v>
+        <v>253.1369546099409</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -25245,13 +25247,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>118.5388453083828</v>
+        <v>118.4696541797598</v>
       </c>
       <c r="H36" t="n">
-        <v>84.320299612958</v>
+        <v>83.65205897599289</v>
       </c>
       <c r="I36" t="n">
-        <v>37.86294566882081</v>
+        <v>35.48070724912226</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.786554340597835</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>127.6305556124798</v>
+        <v>126.3453607452921</v>
       </c>
       <c r="T36" t="n">
-        <v>173.9226398638123</v>
+        <v>173.6437510602833</v>
       </c>
       <c r="U36" t="n">
-        <v>207.9414346223241</v>
+        <v>207.9368825743884</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
@@ -25324,16 +25326,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3029221927327</v>
+        <v>166.2449146747757</v>
       </c>
       <c r="H37" t="n">
-        <v>151.5357458635549</v>
+        <v>151.0200062948104</v>
       </c>
       <c r="I37" t="n">
-        <v>123.6862121416195</v>
+        <v>121.9417678743324</v>
       </c>
       <c r="J37" t="n">
-        <v>11.085091836852</v>
+        <v>6.983960317295718</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>110.585143828612</v>
+        <v>107.9769148848387</v>
       </c>
       <c r="S37" t="n">
-        <v>196.1071114281788</v>
+        <v>195.0961985925109</v>
       </c>
       <c r="T37" t="n">
-        <v>232.2142445012334</v>
+        <v>231.9663941972356</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5697534131281</v>
+        <v>282.5665893666941</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -25403,13 +25405,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>408.4323500200001</v>
+        <v>408.3030322092966</v>
       </c>
       <c r="H38" t="n">
-        <v>314.7099853831353</v>
+        <v>313.3856093542684</v>
       </c>
       <c r="I38" t="n">
-        <v>113.8693593270194</v>
+        <v>108.8838344298736</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>151.2037672717813</v>
+        <v>148.2569376603758</v>
       </c>
       <c r="T38" t="n">
-        <v>218.6444459974996</v>
+        <v>218.0783572811451</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1473000347972</v>
+        <v>253.1369546099409</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -25482,13 +25484,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>118.5388453083828</v>
+        <v>118.4696541797598</v>
       </c>
       <c r="H39" t="n">
-        <v>84.320299612958</v>
+        <v>83.65205897599289</v>
       </c>
       <c r="I39" t="n">
-        <v>37.86294566882081</v>
+        <v>35.48070724912226</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.786554340597835</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>127.6305556124798</v>
+        <v>126.3453607452921</v>
       </c>
       <c r="T39" t="n">
-        <v>173.9226398638123</v>
+        <v>173.6437510602833</v>
       </c>
       <c r="U39" t="n">
-        <v>207.9414346223241</v>
+        <v>207.9368825743884</v>
       </c>
       <c r="V39" t="n">
         <v>220.3146016126436</v>
@@ -25561,16 +25563,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3029221927327</v>
+        <v>166.2449146747757</v>
       </c>
       <c r="H40" t="n">
-        <v>151.5357458635549</v>
+        <v>151.0200062948104</v>
       </c>
       <c r="I40" t="n">
-        <v>123.6862121416195</v>
+        <v>121.9417678743324</v>
       </c>
       <c r="J40" t="n">
-        <v>11.085091836852</v>
+        <v>6.983960317295718</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>110.585143828612</v>
+        <v>107.9769148848387</v>
       </c>
       <c r="S40" t="n">
-        <v>196.1071114281788</v>
+        <v>195.0961985925109</v>
       </c>
       <c r="T40" t="n">
-        <v>232.2142445012334</v>
+        <v>231.9663941972356</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5697534131281</v>
+        <v>282.5665893666941</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25640,13 +25642,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>408.4323500200001</v>
+        <v>408.3030322092966</v>
       </c>
       <c r="H41" t="n">
-        <v>314.7099853831353</v>
+        <v>313.3856093542684</v>
       </c>
       <c r="I41" t="n">
-        <v>113.8693593270194</v>
+        <v>108.8838344298736</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>151.2037672717813</v>
+        <v>148.2569376603758</v>
       </c>
       <c r="T41" t="n">
-        <v>218.6444459974996</v>
+        <v>218.0783572811451</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1473000347972</v>
+        <v>253.1369546099409</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25719,13 +25721,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>118.5388453083828</v>
+        <v>118.4696541797598</v>
       </c>
       <c r="H42" t="n">
-        <v>84.320299612958</v>
+        <v>83.65205897599289</v>
       </c>
       <c r="I42" t="n">
-        <v>37.86294566882081</v>
+        <v>35.48070724912226</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.786554340597835</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>127.6305556124798</v>
+        <v>126.3453607452921</v>
       </c>
       <c r="T42" t="n">
-        <v>173.9226398638123</v>
+        <v>173.6437510602833</v>
       </c>
       <c r="U42" t="n">
-        <v>207.9414346223241</v>
+        <v>207.9368825743884</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
@@ -25798,16 +25800,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3029221927327</v>
+        <v>166.2449146747757</v>
       </c>
       <c r="H43" t="n">
-        <v>151.5357458635549</v>
+        <v>151.0200062948104</v>
       </c>
       <c r="I43" t="n">
-        <v>123.6862121416195</v>
+        <v>121.9417678743324</v>
       </c>
       <c r="J43" t="n">
-        <v>11.085091836852</v>
+        <v>6.983960317295718</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>110.585143828612</v>
+        <v>107.9769148848387</v>
       </c>
       <c r="S43" t="n">
-        <v>196.1071114281788</v>
+        <v>195.0961985925109</v>
       </c>
       <c r="T43" t="n">
-        <v>232.2142445012334</v>
+        <v>231.9663941972356</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5697534131281</v>
+        <v>282.5665893666941</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
@@ -25877,13 +25879,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>408.4323500200001</v>
+        <v>408.195414220098</v>
       </c>
       <c r="H44" t="n">
-        <v>314.7099853831353</v>
+        <v>312.2834666223883</v>
       </c>
       <c r="I44" t="n">
-        <v>113.8693593270194</v>
+        <v>104.7348919012949</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>151.2037672717813</v>
+        <v>145.8045927315129</v>
       </c>
       <c r="T44" t="n">
-        <v>218.6444459974996</v>
+        <v>217.6072595334283</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1473000347972</v>
+        <v>253.1283451708051</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25956,13 +25958,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.5388453083828</v>
+        <v>118.4120734792183</v>
       </c>
       <c r="H45" t="n">
-        <v>84.320299612958</v>
+        <v>83.09595063128953</v>
       </c>
       <c r="I45" t="n">
-        <v>37.86294566882081</v>
+        <v>33.49821383135598</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.786554340597835</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>127.6305556124798</v>
+        <v>125.2758244874271</v>
       </c>
       <c r="T45" t="n">
-        <v>173.9226398638123</v>
+        <v>173.4116604295919</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9414346223241</v>
+        <v>207.9330943704054</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -26035,16 +26037,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3029221927327</v>
+        <v>166.1966409497028</v>
       </c>
       <c r="H46" t="n">
-        <v>151.5357458635549</v>
+        <v>150.5908089937078</v>
       </c>
       <c r="I46" t="n">
-        <v>123.6862121416195</v>
+        <v>120.4900453057766</v>
       </c>
       <c r="J46" t="n">
-        <v>11.085091836852</v>
+        <v>3.571007954642184</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>110.585143828612</v>
+        <v>105.8063526647429</v>
       </c>
       <c r="S46" t="n">
-        <v>196.1071114281788</v>
+        <v>194.2549192201042</v>
       </c>
       <c r="T46" t="n">
-        <v>232.2142445012334</v>
+        <v>231.7601337355605</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5697534131281</v>
+        <v>282.5639562544173</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>241578.9306725958</v>
+        <v>240110.7965593388</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>241578.9306725958</v>
+        <v>240110.7965593388</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>241578.9306725958</v>
+        <v>240110.7965593388</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>241578.9306725958</v>
+        <v>240110.7965593388</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>241578.9306725958</v>
+        <v>240110.7965593388</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>241578.9306725958</v>
+        <v>240110.7965593388</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>241578.9306725958</v>
+        <v>240110.7965593388</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>241578.9306725958</v>
+        <v>240110.7965593388</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>241578.9306725958</v>
+        <v>240110.7965593388</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>241578.9306725958</v>
+        <v>240110.7965593388</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>241578.9306725958</v>
+        <v>240110.7965593388</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>241578.9306725958</v>
+        <v>238941.2436395515</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>48844.67728252667</v>
       </c>
       <c r="C2" t="n">
-        <v>48844.67728252668</v>
+        <v>48844.67728252669</v>
       </c>
       <c r="D2" t="n">
-        <v>48844.67728252668</v>
+        <v>48844.67728252669</v>
       </c>
       <c r="E2" t="n">
-        <v>51955.9430577588</v>
+        <v>52410.71399015422</v>
       </c>
       <c r="F2" t="n">
-        <v>51955.9430577588</v>
+        <v>52410.7139901542</v>
       </c>
       <c r="G2" t="n">
-        <v>51955.9430577588</v>
+        <v>52410.71399015423</v>
       </c>
       <c r="H2" t="n">
-        <v>51955.94305775881</v>
+        <v>52410.71399015422</v>
       </c>
       <c r="I2" t="n">
-        <v>51955.9430577588</v>
+        <v>52410.71399015423</v>
       </c>
       <c r="J2" t="n">
-        <v>51955.9430577588</v>
+        <v>52410.71399015422</v>
       </c>
       <c r="K2" t="n">
-        <v>51955.9430577588</v>
+        <v>52410.7139901542</v>
       </c>
       <c r="L2" t="n">
-        <v>51955.9430577588</v>
+        <v>52410.71399015421</v>
       </c>
       <c r="M2" t="n">
-        <v>51955.9430577588</v>
+        <v>52410.71399015424</v>
       </c>
       <c r="N2" t="n">
-        <v>51955.9430577588</v>
+        <v>52410.71399015423</v>
       </c>
       <c r="O2" t="n">
-        <v>51955.9430577588</v>
+        <v>52410.71399015423</v>
       </c>
       <c r="P2" t="n">
-        <v>51955.9430577588</v>
+        <v>52745.75031853785</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119663.6727166194</v>
+        <v>145507.38408843</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>17817.45275623694</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309333</v>
       </c>
       <c r="C4" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309333</v>
       </c>
       <c r="D4" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309333</v>
       </c>
       <c r="E4" t="n">
-        <v>13772.10341934571</v>
+        <v>10309.9736794318</v>
       </c>
       <c r="F4" t="n">
-        <v>13772.10341934571</v>
+        <v>10309.9736794318</v>
       </c>
       <c r="G4" t="n">
-        <v>13772.10341934571</v>
+        <v>10309.9736794318</v>
       </c>
       <c r="H4" t="n">
-        <v>13772.10341934571</v>
+        <v>10309.9736794318</v>
       </c>
       <c r="I4" t="n">
-        <v>13772.10341934571</v>
+        <v>10309.9736794318</v>
       </c>
       <c r="J4" t="n">
-        <v>13772.10341934571</v>
+        <v>10309.9736794318</v>
       </c>
       <c r="K4" t="n">
-        <v>13772.10341934571</v>
+        <v>10309.9736794318</v>
       </c>
       <c r="L4" t="n">
-        <v>13772.10341934571</v>
+        <v>10309.9736794318</v>
       </c>
       <c r="M4" t="n">
-        <v>13772.10341934571</v>
+        <v>10309.9736794318</v>
       </c>
       <c r="N4" t="n">
-        <v>13772.10341934571</v>
+        <v>10309.9736794318</v>
       </c>
       <c r="O4" t="n">
-        <v>13772.10341934571</v>
+        <v>10309.9736794318</v>
       </c>
       <c r="P4" t="n">
-        <v>13772.10341934571</v>
+        <v>7671.415319808698</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>3247.023057198321</v>
+        <v>3948.2812151906</v>
       </c>
       <c r="F5" t="n">
-        <v>3247.023057198321</v>
+        <v>3948.2812151906</v>
       </c>
       <c r="G5" t="n">
-        <v>3247.023057198321</v>
+        <v>3948.2812151906</v>
       </c>
       <c r="H5" t="n">
-        <v>3247.023057198321</v>
+        <v>3948.2812151906</v>
       </c>
       <c r="I5" t="n">
-        <v>3247.023057198321</v>
+        <v>3948.2812151906</v>
       </c>
       <c r="J5" t="n">
-        <v>3247.023057198321</v>
+        <v>3948.2812151906</v>
       </c>
       <c r="K5" t="n">
-        <v>3247.023057198321</v>
+        <v>3948.2812151906</v>
       </c>
       <c r="L5" t="n">
-        <v>3247.023057198321</v>
+        <v>3948.2812151906</v>
       </c>
       <c r="M5" t="n">
-        <v>3247.023057198321</v>
+        <v>3948.2812151906</v>
       </c>
       <c r="N5" t="n">
-        <v>3247.023057198321</v>
+        <v>3948.2812151906</v>
       </c>
       <c r="O5" t="n">
-        <v>3247.023057198321</v>
+        <v>3948.2812151906</v>
       </c>
       <c r="P5" t="n">
-        <v>3247.023057198321</v>
+        <v>4531.866666117264</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14841.18566056666</v>
+        <v>-14841.18566056667</v>
       </c>
       <c r="C6" t="n">
-        <v>-14841.18566056665</v>
+        <v>-14841.18566056664</v>
       </c>
       <c r="D6" t="n">
-        <v>-14841.18566056665</v>
+        <v>-14841.18566056664</v>
       </c>
       <c r="E6" t="n">
-        <v>-84726.85613540463</v>
+        <v>-107354.9249928982</v>
       </c>
       <c r="F6" t="n">
-        <v>34936.81658121477</v>
+        <v>38152.45909553181</v>
       </c>
       <c r="G6" t="n">
-        <v>34936.81658121477</v>
+        <v>38152.45909553184</v>
       </c>
       <c r="H6" t="n">
-        <v>34936.81658121479</v>
+        <v>38152.45909553183</v>
       </c>
       <c r="I6" t="n">
-        <v>34936.81658121477</v>
+        <v>38152.45909553184</v>
       </c>
       <c r="J6" t="n">
-        <v>34936.81658121477</v>
+        <v>38152.45909553183</v>
       </c>
       <c r="K6" t="n">
-        <v>34936.81658121477</v>
+        <v>38152.45909553181</v>
       </c>
       <c r="L6" t="n">
-        <v>34936.81658121477</v>
+        <v>38152.45909553182</v>
       </c>
       <c r="M6" t="n">
-        <v>34936.81658121477</v>
+        <v>38152.45909553185</v>
       </c>
       <c r="N6" t="n">
-        <v>34936.81658121477</v>
+        <v>38152.45909553184</v>
       </c>
       <c r="O6" t="n">
-        <v>34936.81658121477</v>
+        <v>38152.45909553183</v>
       </c>
       <c r="P6" t="n">
-        <v>34936.81658121477</v>
+        <v>22725.01557637495</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>148.9460117980881</v>
+        <v>181.113817210578</v>
       </c>
       <c r="F3" t="n">
-        <v>148.9460117980881</v>
+        <v>181.113817210578</v>
       </c>
       <c r="G3" t="n">
-        <v>148.9460117980881</v>
+        <v>181.113817210578</v>
       </c>
       <c r="H3" t="n">
-        <v>148.9460117980881</v>
+        <v>181.113817210578</v>
       </c>
       <c r="I3" t="n">
-        <v>148.9460117980881</v>
+        <v>181.113817210578</v>
       </c>
       <c r="J3" t="n">
-        <v>148.9460117980881</v>
+        <v>181.113817210578</v>
       </c>
       <c r="K3" t="n">
-        <v>148.9460117980881</v>
+        <v>181.113817210578</v>
       </c>
       <c r="L3" t="n">
-        <v>148.9460117980881</v>
+        <v>181.113817210578</v>
       </c>
       <c r="M3" t="n">
-        <v>148.9460117980881</v>
+        <v>181.113817210578</v>
       </c>
       <c r="N3" t="n">
-        <v>148.9460117980881</v>
+        <v>181.113817210578</v>
       </c>
       <c r="O3" t="n">
-        <v>148.9460117980881</v>
+        <v>181.113817210578</v>
       </c>
       <c r="P3" t="n">
-        <v>148.9460117980881</v>
+        <v>207.8837920237277</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>148.9460117980881</v>
+        <v>181.113817210578</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>26.76997481314973</v>
       </c>
     </row>
     <row r="4">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.7280957475802123</v>
       </c>
       <c r="H11" t="n">
-        <v>6.132234546038871</v>
+        <v>7.456610574905852</v>
       </c>
       <c r="I11" t="n">
-        <v>23.08438641144037</v>
+        <v>28.06991130858616</v>
       </c>
       <c r="J11" t="n">
-        <v>50.82052891999189</v>
+        <v>61.79621645618611</v>
       </c>
       <c r="K11" t="n">
-        <v>76.16679898798412</v>
+        <v>92.61650945125652</v>
       </c>
       <c r="L11" t="n">
-        <v>94.49164927367555</v>
+        <v>114.8989696862645</v>
       </c>
       <c r="M11" t="n">
-        <v>105.1401664086072</v>
+        <v>127.8472424372941</v>
       </c>
       <c r="N11" t="n">
-        <v>106.8414442217582</v>
+        <v>129.9159444801064</v>
       </c>
       <c r="O11" t="n">
-        <v>100.8873461119402</v>
+        <v>122.6759423901056</v>
       </c>
       <c r="P11" t="n">
-        <v>86.10501579529576</v>
+        <v>104.7010786217191</v>
       </c>
       <c r="Q11" t="n">
-        <v>64.66128093089763</v>
+        <v>78.62614966150271</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>45.73624450393555</v>
       </c>
       <c r="S11" t="n">
-        <v>13.64465223657863</v>
+        <v>16.59148184798411</v>
       </c>
       <c r="T11" t="n">
-        <v>2.621150418677912</v>
+        <v>3.187239135032381</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.05824765980641698</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3895655690944507</v>
       </c>
       <c r="H12" t="n">
-        <v>3.094142622447076</v>
+        <v>3.762383259412196</v>
       </c>
       <c r="I12" t="n">
-        <v>11.03043577938672</v>
+        <v>13.41267419908526</v>
       </c>
       <c r="J12" t="n">
-        <v>30.26835886926997</v>
+        <v>36.80540317484019</v>
       </c>
       <c r="K12" t="n">
-        <v>51.73344638085104</v>
+        <v>62.90629630416839</v>
       </c>
       <c r="L12" t="n">
-        <v>69.56200296287125</v>
+        <v>84.58527850009116</v>
       </c>
       <c r="M12" t="n">
-        <v>81.17557642995801</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>83.32405239259271</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>76.22522926425364</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>61.17746661948265</v>
+        <v>74.38993748786929</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.89551629595808</v>
+        <v>49.72770317072322</v>
       </c>
       <c r="R12" t="n">
-        <v>19.89131833031827</v>
+        <v>24.18723770219757</v>
       </c>
       <c r="S12" t="n">
-        <v>5.950814716650026</v>
+        <v>7.236009583837709</v>
       </c>
       <c r="T12" t="n">
-        <v>1.291333819268329</v>
+        <v>1.570222622797369</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02562931375621387</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.3265986867731733</v>
       </c>
       <c r="H13" t="n">
-        <v>2.38801966456607</v>
+        <v>2.90375923331058</v>
       </c>
       <c r="I13" t="n">
-        <v>8.077268967673369</v>
+        <v>9.821713234960525</v>
       </c>
       <c r="J13" t="n">
-        <v>18.98939563530707</v>
+        <v>23.09052715486335</v>
       </c>
       <c r="K13" t="n">
-        <v>31.20541034064861</v>
+        <v>37.9448292451014</v>
       </c>
       <c r="L13" t="n">
-        <v>39.93218158927759</v>
+        <v>48.55631748625889</v>
       </c>
       <c r="M13" t="n">
-        <v>42.10288658089234</v>
+        <v>51.19582869118025</v>
       </c>
       <c r="N13" t="n">
-        <v>41.10177404257735</v>
+        <v>49.97850631320755</v>
       </c>
       <c r="O13" t="n">
-        <v>37.96414084322417</v>
+        <v>46.16323983590274</v>
       </c>
       <c r="P13" t="n">
-        <v>32.48488099937317</v>
+        <v>39.50062662572996</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.4908477815113</v>
+        <v>27.34818639879727</v>
       </c>
       <c r="R13" t="n">
-        <v>12.07683564513678</v>
+        <v>14.68506458891014</v>
       </c>
       <c r="S13" t="n">
-        <v>4.680811551097292</v>
+        <v>5.69172438676521</v>
       </c>
       <c r="T13" t="n">
-        <v>1.147616812214777</v>
+        <v>1.395467116212649</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01781447382399129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.7280957475802123</v>
       </c>
       <c r="H14" t="n">
-        <v>6.132234546038871</v>
+        <v>7.456610574905852</v>
       </c>
       <c r="I14" t="n">
-        <v>23.08438641144037</v>
+        <v>28.06991130858616</v>
       </c>
       <c r="J14" t="n">
-        <v>50.82052891999189</v>
+        <v>61.79621645618611</v>
       </c>
       <c r="K14" t="n">
-        <v>76.16679898798412</v>
+        <v>92.61650945125652</v>
       </c>
       <c r="L14" t="n">
-        <v>94.49164927367555</v>
+        <v>114.8989696862645</v>
       </c>
       <c r="M14" t="n">
-        <v>105.1401664086072</v>
+        <v>127.8472424372941</v>
       </c>
       <c r="N14" t="n">
-        <v>106.8414442217582</v>
+        <v>129.9159444801064</v>
       </c>
       <c r="O14" t="n">
-        <v>100.8873461119402</v>
+        <v>122.6759423901056</v>
       </c>
       <c r="P14" t="n">
-        <v>86.10501579529576</v>
+        <v>104.7010786217191</v>
       </c>
       <c r="Q14" t="n">
-        <v>64.66128093089763</v>
+        <v>78.62614966150271</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>45.73624450393555</v>
       </c>
       <c r="S14" t="n">
-        <v>13.64465223657863</v>
+        <v>16.59148184798411</v>
       </c>
       <c r="T14" t="n">
-        <v>2.621150418677912</v>
+        <v>3.187239135032381</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.05824765980641698</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3895655690944507</v>
       </c>
       <c r="H15" t="n">
-        <v>3.094142622447076</v>
+        <v>3.762383259412196</v>
       </c>
       <c r="I15" t="n">
-        <v>11.03043577938672</v>
+        <v>13.41267419908526</v>
       </c>
       <c r="J15" t="n">
-        <v>30.26835886926997</v>
+        <v>36.80540317484019</v>
       </c>
       <c r="K15" t="n">
-        <v>51.73344638085104</v>
+        <v>62.90629630416839</v>
       </c>
       <c r="L15" t="n">
-        <v>69.56200296287125</v>
+        <v>84.58527850009116</v>
       </c>
       <c r="M15" t="n">
-        <v>81.17557642995801</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>83.32405239259271</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>76.22522926425364</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>61.17746661948265</v>
+        <v>74.38993748786929</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.89551629595808</v>
+        <v>49.72770317072322</v>
       </c>
       <c r="R15" t="n">
-        <v>19.89131833031827</v>
+        <v>24.18723770219757</v>
       </c>
       <c r="S15" t="n">
-        <v>5.950814716650026</v>
+        <v>7.236009583837709</v>
       </c>
       <c r="T15" t="n">
-        <v>1.291333819268329</v>
+        <v>1.570222622797369</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02562931375621387</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.3265986867731733</v>
       </c>
       <c r="H16" t="n">
-        <v>2.38801966456607</v>
+        <v>2.90375923331058</v>
       </c>
       <c r="I16" t="n">
-        <v>8.077268967673369</v>
+        <v>9.821713234960525</v>
       </c>
       <c r="J16" t="n">
-        <v>18.98939563530707</v>
+        <v>23.09052715486335</v>
       </c>
       <c r="K16" t="n">
-        <v>31.20541034064861</v>
+        <v>37.9448292451014</v>
       </c>
       <c r="L16" t="n">
-        <v>39.93218158927759</v>
+        <v>48.55631748625889</v>
       </c>
       <c r="M16" t="n">
-        <v>42.10288658089234</v>
+        <v>51.19582869118025</v>
       </c>
       <c r="N16" t="n">
-        <v>41.10177404257735</v>
+        <v>49.97850631320755</v>
       </c>
       <c r="O16" t="n">
-        <v>37.96414084322417</v>
+        <v>46.16323983590274</v>
       </c>
       <c r="P16" t="n">
-        <v>32.48488099937317</v>
+        <v>39.50062662572996</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.4908477815113</v>
+        <v>27.34818639879727</v>
       </c>
       <c r="R16" t="n">
-        <v>12.07683564513678</v>
+        <v>14.68506458891014</v>
       </c>
       <c r="S16" t="n">
-        <v>4.680811551097292</v>
+        <v>5.69172438676521</v>
       </c>
       <c r="T16" t="n">
-        <v>1.147616812214777</v>
+        <v>1.395467116212649</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01781447382399129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.7280957475802123</v>
       </c>
       <c r="H17" t="n">
-        <v>6.132234546038871</v>
+        <v>7.456610574905852</v>
       </c>
       <c r="I17" t="n">
-        <v>23.08438641144037</v>
+        <v>28.06991130858616</v>
       </c>
       <c r="J17" t="n">
-        <v>50.82052891999189</v>
+        <v>61.79621645618611</v>
       </c>
       <c r="K17" t="n">
-        <v>76.16679898798412</v>
+        <v>92.61650945125652</v>
       </c>
       <c r="L17" t="n">
-        <v>94.49164927367555</v>
+        <v>114.8989696862645</v>
       </c>
       <c r="M17" t="n">
-        <v>105.1401664086072</v>
+        <v>127.8472424372941</v>
       </c>
       <c r="N17" t="n">
-        <v>106.8414442217582</v>
+        <v>129.9159444801064</v>
       </c>
       <c r="O17" t="n">
-        <v>100.8873461119402</v>
+        <v>122.6759423901056</v>
       </c>
       <c r="P17" t="n">
-        <v>86.10501579529576</v>
+        <v>104.7010786217191</v>
       </c>
       <c r="Q17" t="n">
-        <v>64.66128093089763</v>
+        <v>78.62614966150271</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>45.73624450393555</v>
       </c>
       <c r="S17" t="n">
-        <v>13.64465223657863</v>
+        <v>16.59148184798411</v>
       </c>
       <c r="T17" t="n">
-        <v>2.621150418677912</v>
+        <v>3.187239135032381</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.05824765980641698</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3895655690944507</v>
       </c>
       <c r="H18" t="n">
-        <v>3.094142622447076</v>
+        <v>3.762383259412196</v>
       </c>
       <c r="I18" t="n">
-        <v>11.03043577938672</v>
+        <v>13.41267419908526</v>
       </c>
       <c r="J18" t="n">
-        <v>30.26835886926997</v>
+        <v>36.80540317484019</v>
       </c>
       <c r="K18" t="n">
-        <v>51.73344638085104</v>
+        <v>62.90629630416839</v>
       </c>
       <c r="L18" t="n">
-        <v>69.56200296287125</v>
+        <v>84.58527850009116</v>
       </c>
       <c r="M18" t="n">
-        <v>81.17557642995801</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>83.32405239259271</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>76.22522926425364</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>61.17746661948265</v>
+        <v>74.38993748786929</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.89551629595808</v>
+        <v>49.72770317072322</v>
       </c>
       <c r="R18" t="n">
-        <v>19.89131833031827</v>
+        <v>24.18723770219757</v>
       </c>
       <c r="S18" t="n">
-        <v>5.950814716650026</v>
+        <v>7.236009583837709</v>
       </c>
       <c r="T18" t="n">
-        <v>1.291333819268329</v>
+        <v>1.570222622797369</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02562931375621387</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.3265986867731733</v>
       </c>
       <c r="H19" t="n">
-        <v>2.38801966456607</v>
+        <v>2.90375923331058</v>
       </c>
       <c r="I19" t="n">
-        <v>8.077268967673369</v>
+        <v>9.821713234960525</v>
       </c>
       <c r="J19" t="n">
-        <v>18.98939563530707</v>
+        <v>23.09052715486335</v>
       </c>
       <c r="K19" t="n">
-        <v>31.20541034064861</v>
+        <v>37.9448292451014</v>
       </c>
       <c r="L19" t="n">
-        <v>39.93218158927759</v>
+        <v>48.55631748625889</v>
       </c>
       <c r="M19" t="n">
-        <v>42.10288658089234</v>
+        <v>51.19582869118025</v>
       </c>
       <c r="N19" t="n">
-        <v>41.10177404257735</v>
+        <v>49.97850631320755</v>
       </c>
       <c r="O19" t="n">
-        <v>37.96414084322417</v>
+        <v>46.16323983590274</v>
       </c>
       <c r="P19" t="n">
-        <v>32.48488099937317</v>
+        <v>39.50062662572996</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.4908477815113</v>
+        <v>27.34818639879727</v>
       </c>
       <c r="R19" t="n">
-        <v>12.07683564513678</v>
+        <v>14.68506458891014</v>
       </c>
       <c r="S19" t="n">
-        <v>4.680811551097292</v>
+        <v>5.69172438676521</v>
       </c>
       <c r="T19" t="n">
-        <v>1.147616812214777</v>
+        <v>1.395467116212649</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01781447382399129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.7280957475802123</v>
       </c>
       <c r="H20" t="n">
-        <v>6.132234546038871</v>
+        <v>7.456610574905852</v>
       </c>
       <c r="I20" t="n">
-        <v>23.08438641144037</v>
+        <v>28.06991130858616</v>
       </c>
       <c r="J20" t="n">
-        <v>50.82052891999189</v>
+        <v>61.79621645618611</v>
       </c>
       <c r="K20" t="n">
-        <v>76.16679898798412</v>
+        <v>92.61650945125652</v>
       </c>
       <c r="L20" t="n">
-        <v>94.49164927367555</v>
+        <v>114.8989696862645</v>
       </c>
       <c r="M20" t="n">
-        <v>105.1401664086072</v>
+        <v>127.8472424372941</v>
       </c>
       <c r="N20" t="n">
-        <v>106.8414442217582</v>
+        <v>129.9159444801064</v>
       </c>
       <c r="O20" t="n">
-        <v>100.8873461119402</v>
+        <v>122.6759423901056</v>
       </c>
       <c r="P20" t="n">
-        <v>86.10501579529576</v>
+        <v>104.7010786217191</v>
       </c>
       <c r="Q20" t="n">
-        <v>64.66128093089763</v>
+        <v>78.62614966150271</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>45.73624450393555</v>
       </c>
       <c r="S20" t="n">
-        <v>13.64465223657863</v>
+        <v>16.59148184798411</v>
       </c>
       <c r="T20" t="n">
-        <v>2.621150418677912</v>
+        <v>3.187239135032381</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.05824765980641698</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3895655690944507</v>
       </c>
       <c r="H21" t="n">
-        <v>3.094142622447076</v>
+        <v>3.762383259412196</v>
       </c>
       <c r="I21" t="n">
-        <v>11.03043577938672</v>
+        <v>13.41267419908526</v>
       </c>
       <c r="J21" t="n">
-        <v>30.26835886926997</v>
+        <v>36.80540317484019</v>
       </c>
       <c r="K21" t="n">
-        <v>51.73344638085104</v>
+        <v>62.90629630416839</v>
       </c>
       <c r="L21" t="n">
-        <v>69.56200296287125</v>
+        <v>84.58527850009116</v>
       </c>
       <c r="M21" t="n">
-        <v>81.17557642995801</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>83.32405239259271</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>76.22522926425364</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>61.17746661948265</v>
+        <v>74.38993748786929</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.89551629595808</v>
+        <v>49.72770317072322</v>
       </c>
       <c r="R21" t="n">
-        <v>19.89131833031827</v>
+        <v>24.18723770219757</v>
       </c>
       <c r="S21" t="n">
-        <v>5.950814716650026</v>
+        <v>7.236009583837709</v>
       </c>
       <c r="T21" t="n">
-        <v>1.291333819268329</v>
+        <v>1.570222622797369</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02562931375621387</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.3265986867731733</v>
       </c>
       <c r="H22" t="n">
-        <v>2.38801966456607</v>
+        <v>2.90375923331058</v>
       </c>
       <c r="I22" t="n">
-        <v>8.077268967673369</v>
+        <v>9.821713234960525</v>
       </c>
       <c r="J22" t="n">
-        <v>18.98939563530707</v>
+        <v>23.09052715486335</v>
       </c>
       <c r="K22" t="n">
-        <v>31.20541034064861</v>
+        <v>37.9448292451014</v>
       </c>
       <c r="L22" t="n">
-        <v>39.93218158927759</v>
+        <v>48.55631748625889</v>
       </c>
       <c r="M22" t="n">
-        <v>42.10288658089234</v>
+        <v>51.19582869118025</v>
       </c>
       <c r="N22" t="n">
-        <v>41.10177404257735</v>
+        <v>49.97850631320755</v>
       </c>
       <c r="O22" t="n">
-        <v>37.96414084322417</v>
+        <v>46.16323983590274</v>
       </c>
       <c r="P22" t="n">
-        <v>32.48488099937317</v>
+        <v>39.50062662572996</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.4908477815113</v>
+        <v>27.34818639879727</v>
       </c>
       <c r="R22" t="n">
-        <v>12.07683564513678</v>
+        <v>14.68506458891014</v>
       </c>
       <c r="S22" t="n">
-        <v>4.680811551097292</v>
+        <v>5.69172438676521</v>
       </c>
       <c r="T22" t="n">
-        <v>1.147616812214777</v>
+        <v>1.395467116212649</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01781447382399129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.7280957475802123</v>
       </c>
       <c r="H23" t="n">
-        <v>6.132234546038871</v>
+        <v>7.456610574905852</v>
       </c>
       <c r="I23" t="n">
-        <v>23.08438641144037</v>
+        <v>28.06991130858616</v>
       </c>
       <c r="J23" t="n">
-        <v>50.82052891999189</v>
+        <v>61.79621645618611</v>
       </c>
       <c r="K23" t="n">
-        <v>76.16679898798412</v>
+        <v>92.61650945125652</v>
       </c>
       <c r="L23" t="n">
-        <v>94.49164927367555</v>
+        <v>114.8989696862645</v>
       </c>
       <c r="M23" t="n">
-        <v>105.1401664086072</v>
+        <v>127.8472424372941</v>
       </c>
       <c r="N23" t="n">
-        <v>106.8414442217582</v>
+        <v>129.9159444801064</v>
       </c>
       <c r="O23" t="n">
-        <v>100.8873461119402</v>
+        <v>122.6759423901056</v>
       </c>
       <c r="P23" t="n">
-        <v>86.10501579529576</v>
+        <v>104.7010786217191</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.66128093089763</v>
+        <v>78.62614966150271</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>45.73624450393555</v>
       </c>
       <c r="S23" t="n">
-        <v>13.64465223657863</v>
+        <v>16.59148184798411</v>
       </c>
       <c r="T23" t="n">
-        <v>2.621150418677912</v>
+        <v>3.187239135032381</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.05824765980641698</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3895655690944507</v>
       </c>
       <c r="H24" t="n">
-        <v>3.094142622447076</v>
+        <v>3.762383259412196</v>
       </c>
       <c r="I24" t="n">
-        <v>11.03043577938672</v>
+        <v>13.41267419908526</v>
       </c>
       <c r="J24" t="n">
-        <v>30.26835886926997</v>
+        <v>36.80540317484019</v>
       </c>
       <c r="K24" t="n">
-        <v>51.73344638085104</v>
+        <v>62.90629630416839</v>
       </c>
       <c r="L24" t="n">
-        <v>69.56200296287125</v>
+        <v>84.58527850009116</v>
       </c>
       <c r="M24" t="n">
-        <v>81.17557642995801</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>83.32405239259271</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>76.22522926425364</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>61.17746661948265</v>
+        <v>74.38993748786929</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.89551629595808</v>
+        <v>49.72770317072322</v>
       </c>
       <c r="R24" t="n">
-        <v>19.89131833031827</v>
+        <v>24.18723770219757</v>
       </c>
       <c r="S24" t="n">
-        <v>5.950814716650026</v>
+        <v>7.236009583837709</v>
       </c>
       <c r="T24" t="n">
-        <v>1.291333819268329</v>
+        <v>1.570222622797369</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02562931375621387</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.3265986867731733</v>
       </c>
       <c r="H25" t="n">
-        <v>2.38801966456607</v>
+        <v>2.90375923331058</v>
       </c>
       <c r="I25" t="n">
-        <v>8.077268967673369</v>
+        <v>9.821713234960525</v>
       </c>
       <c r="J25" t="n">
-        <v>18.98939563530707</v>
+        <v>23.09052715486335</v>
       </c>
       <c r="K25" t="n">
-        <v>31.20541034064861</v>
+        <v>37.9448292451014</v>
       </c>
       <c r="L25" t="n">
-        <v>39.93218158927759</v>
+        <v>48.55631748625889</v>
       </c>
       <c r="M25" t="n">
-        <v>42.10288658089234</v>
+        <v>51.19582869118025</v>
       </c>
       <c r="N25" t="n">
-        <v>41.10177404257735</v>
+        <v>49.97850631320755</v>
       </c>
       <c r="O25" t="n">
-        <v>37.96414084322417</v>
+        <v>46.16323983590274</v>
       </c>
       <c r="P25" t="n">
-        <v>32.48488099937317</v>
+        <v>39.50062662572996</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.4908477815113</v>
+        <v>27.34818639879727</v>
       </c>
       <c r="R25" t="n">
-        <v>12.07683564513678</v>
+        <v>14.68506458891014</v>
       </c>
       <c r="S25" t="n">
-        <v>4.680811551097292</v>
+        <v>5.69172438676521</v>
       </c>
       <c r="T25" t="n">
-        <v>1.147616812214777</v>
+        <v>1.395467116212649</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01781447382399129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.7280957475802123</v>
       </c>
       <c r="H26" t="n">
-        <v>6.132234546038871</v>
+        <v>7.456610574905852</v>
       </c>
       <c r="I26" t="n">
-        <v>23.08438641144037</v>
+        <v>28.06991130858616</v>
       </c>
       <c r="J26" t="n">
-        <v>50.82052891999189</v>
+        <v>61.79621645618611</v>
       </c>
       <c r="K26" t="n">
-        <v>76.16679898798412</v>
+        <v>92.61650945125652</v>
       </c>
       <c r="L26" t="n">
-        <v>94.49164927367555</v>
+        <v>114.8989696862645</v>
       </c>
       <c r="M26" t="n">
-        <v>105.1401664086072</v>
+        <v>127.8472424372941</v>
       </c>
       <c r="N26" t="n">
-        <v>106.8414442217582</v>
+        <v>129.9159444801064</v>
       </c>
       <c r="O26" t="n">
-        <v>100.8873461119402</v>
+        <v>122.6759423901056</v>
       </c>
       <c r="P26" t="n">
-        <v>86.10501579529576</v>
+        <v>104.7010786217191</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.66128093089763</v>
+        <v>78.62614966150271</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>45.73624450393555</v>
       </c>
       <c r="S26" t="n">
-        <v>13.64465223657863</v>
+        <v>16.59148184798411</v>
       </c>
       <c r="T26" t="n">
-        <v>2.621150418677912</v>
+        <v>3.187239135032381</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.05824765980641698</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3895655690944507</v>
       </c>
       <c r="H27" t="n">
-        <v>3.094142622447076</v>
+        <v>3.762383259412196</v>
       </c>
       <c r="I27" t="n">
-        <v>11.03043577938672</v>
+        <v>13.41267419908526</v>
       </c>
       <c r="J27" t="n">
-        <v>30.26835886926997</v>
+        <v>36.80540317484019</v>
       </c>
       <c r="K27" t="n">
-        <v>51.73344638085104</v>
+        <v>62.90629630416839</v>
       </c>
       <c r="L27" t="n">
-        <v>69.56200296287125</v>
+        <v>84.58527850009116</v>
       </c>
       <c r="M27" t="n">
-        <v>81.17557642995801</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>83.32405239259271</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>76.22522926425364</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>61.17746661948265</v>
+        <v>74.38993748786929</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.89551629595808</v>
+        <v>49.72770317072322</v>
       </c>
       <c r="R27" t="n">
-        <v>19.89131833031827</v>
+        <v>24.18723770219757</v>
       </c>
       <c r="S27" t="n">
-        <v>5.950814716650026</v>
+        <v>7.236009583837709</v>
       </c>
       <c r="T27" t="n">
-        <v>1.291333819268329</v>
+        <v>1.570222622797369</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02562931375621387</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.3265986867731733</v>
       </c>
       <c r="H28" t="n">
-        <v>2.38801966456607</v>
+        <v>2.90375923331058</v>
       </c>
       <c r="I28" t="n">
-        <v>8.077268967673369</v>
+        <v>9.821713234960525</v>
       </c>
       <c r="J28" t="n">
-        <v>18.98939563530707</v>
+        <v>23.09052715486335</v>
       </c>
       <c r="K28" t="n">
-        <v>31.20541034064861</v>
+        <v>37.9448292451014</v>
       </c>
       <c r="L28" t="n">
-        <v>39.93218158927759</v>
+        <v>48.55631748625889</v>
       </c>
       <c r="M28" t="n">
-        <v>42.10288658089234</v>
+        <v>51.19582869118025</v>
       </c>
       <c r="N28" t="n">
-        <v>41.10177404257735</v>
+        <v>49.97850631320755</v>
       </c>
       <c r="O28" t="n">
-        <v>37.96414084322417</v>
+        <v>46.16323983590274</v>
       </c>
       <c r="P28" t="n">
-        <v>32.48488099937317</v>
+        <v>39.50062662572996</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.4908477815113</v>
+        <v>27.34818639879727</v>
       </c>
       <c r="R28" t="n">
-        <v>12.07683564513678</v>
+        <v>14.68506458891014</v>
       </c>
       <c r="S28" t="n">
-        <v>4.680811551097292</v>
+        <v>5.69172438676521</v>
       </c>
       <c r="T28" t="n">
-        <v>1.147616812214777</v>
+        <v>1.395467116212649</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01781447382399129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.7280957475802123</v>
       </c>
       <c r="H29" t="n">
-        <v>6.132234546038871</v>
+        <v>7.456610574905852</v>
       </c>
       <c r="I29" t="n">
-        <v>23.08438641144037</v>
+        <v>28.06991130858616</v>
       </c>
       <c r="J29" t="n">
-        <v>50.82052891999189</v>
+        <v>61.79621645618611</v>
       </c>
       <c r="K29" t="n">
-        <v>76.16679898798412</v>
+        <v>92.61650945125652</v>
       </c>
       <c r="L29" t="n">
-        <v>94.49164927367555</v>
+        <v>114.8989696862645</v>
       </c>
       <c r="M29" t="n">
-        <v>105.1401664086072</v>
+        <v>127.8472424372941</v>
       </c>
       <c r="N29" t="n">
-        <v>106.8414442217582</v>
+        <v>129.9159444801064</v>
       </c>
       <c r="O29" t="n">
-        <v>100.8873461119402</v>
+        <v>122.6759423901056</v>
       </c>
       <c r="P29" t="n">
-        <v>86.10501579529576</v>
+        <v>104.7010786217191</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.66128093089763</v>
+        <v>78.62614966150271</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>45.73624450393555</v>
       </c>
       <c r="S29" t="n">
-        <v>13.64465223657863</v>
+        <v>16.59148184798411</v>
       </c>
       <c r="T29" t="n">
-        <v>2.621150418677912</v>
+        <v>3.187239135032381</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.05824765980641698</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3895655690944507</v>
       </c>
       <c r="H30" t="n">
-        <v>3.094142622447076</v>
+        <v>3.762383259412196</v>
       </c>
       <c r="I30" t="n">
-        <v>11.03043577938672</v>
+        <v>13.41267419908526</v>
       </c>
       <c r="J30" t="n">
-        <v>30.26835886926997</v>
+        <v>36.80540317484019</v>
       </c>
       <c r="K30" t="n">
-        <v>51.73344638085104</v>
+        <v>62.90629630416839</v>
       </c>
       <c r="L30" t="n">
-        <v>69.56200296287125</v>
+        <v>84.58527850009116</v>
       </c>
       <c r="M30" t="n">
-        <v>81.17557642995801</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>83.32405239259271</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>76.22522926425364</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>61.17746661948265</v>
+        <v>74.38993748786929</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.89551629595808</v>
+        <v>49.72770317072322</v>
       </c>
       <c r="R30" t="n">
-        <v>19.89131833031827</v>
+        <v>24.18723770219757</v>
       </c>
       <c r="S30" t="n">
-        <v>5.950814716650026</v>
+        <v>7.236009583837709</v>
       </c>
       <c r="T30" t="n">
-        <v>1.291333819268329</v>
+        <v>1.570222622797369</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02562931375621387</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.3265986867731733</v>
       </c>
       <c r="H31" t="n">
-        <v>2.38801966456607</v>
+        <v>2.90375923331058</v>
       </c>
       <c r="I31" t="n">
-        <v>8.077268967673369</v>
+        <v>9.821713234960525</v>
       </c>
       <c r="J31" t="n">
-        <v>18.98939563530707</v>
+        <v>23.09052715486335</v>
       </c>
       <c r="K31" t="n">
-        <v>31.20541034064861</v>
+        <v>37.9448292451014</v>
       </c>
       <c r="L31" t="n">
-        <v>39.93218158927759</v>
+        <v>48.55631748625889</v>
       </c>
       <c r="M31" t="n">
-        <v>42.10288658089234</v>
+        <v>51.19582869118025</v>
       </c>
       <c r="N31" t="n">
-        <v>41.10177404257735</v>
+        <v>49.97850631320755</v>
       </c>
       <c r="O31" t="n">
-        <v>37.96414084322417</v>
+        <v>46.16323983590274</v>
       </c>
       <c r="P31" t="n">
-        <v>32.48488099937317</v>
+        <v>39.50062662572996</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.4908477815113</v>
+        <v>27.34818639879727</v>
       </c>
       <c r="R31" t="n">
-        <v>12.07683564513678</v>
+        <v>14.68506458891014</v>
       </c>
       <c r="S31" t="n">
-        <v>4.680811551097292</v>
+        <v>5.69172438676521</v>
       </c>
       <c r="T31" t="n">
-        <v>1.147616812214777</v>
+        <v>1.395467116212649</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01781447382399129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.7280957475802123</v>
       </c>
       <c r="H32" t="n">
-        <v>6.132234546038871</v>
+        <v>7.456610574905852</v>
       </c>
       <c r="I32" t="n">
-        <v>23.08438641144037</v>
+        <v>28.06991130858616</v>
       </c>
       <c r="J32" t="n">
-        <v>50.82052891999189</v>
+        <v>61.79621645618611</v>
       </c>
       <c r="K32" t="n">
-        <v>76.16679898798412</v>
+        <v>92.61650945125652</v>
       </c>
       <c r="L32" t="n">
-        <v>94.49164927367555</v>
+        <v>114.8989696862645</v>
       </c>
       <c r="M32" t="n">
-        <v>105.1401664086072</v>
+        <v>127.8472424372941</v>
       </c>
       <c r="N32" t="n">
-        <v>106.8414442217582</v>
+        <v>129.9159444801064</v>
       </c>
       <c r="O32" t="n">
-        <v>100.8873461119402</v>
+        <v>122.6759423901056</v>
       </c>
       <c r="P32" t="n">
-        <v>86.10501579529576</v>
+        <v>104.7010786217191</v>
       </c>
       <c r="Q32" t="n">
-        <v>64.66128093089763</v>
+        <v>78.62614966150271</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>45.73624450393555</v>
       </c>
       <c r="S32" t="n">
-        <v>13.64465223657863</v>
+        <v>16.59148184798411</v>
       </c>
       <c r="T32" t="n">
-        <v>2.621150418677912</v>
+        <v>3.187239135032381</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.05824765980641698</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3895655690944507</v>
       </c>
       <c r="H33" t="n">
-        <v>3.094142622447076</v>
+        <v>3.762383259412196</v>
       </c>
       <c r="I33" t="n">
-        <v>11.03043577938672</v>
+        <v>13.41267419908526</v>
       </c>
       <c r="J33" t="n">
-        <v>30.26835886926997</v>
+        <v>36.80540317484019</v>
       </c>
       <c r="K33" t="n">
-        <v>51.73344638085104</v>
+        <v>62.90629630416839</v>
       </c>
       <c r="L33" t="n">
-        <v>69.56200296287125</v>
+        <v>84.58527850009116</v>
       </c>
       <c r="M33" t="n">
-        <v>81.17557642995801</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>83.32405239259271</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>76.22522926425364</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>61.17746661948265</v>
+        <v>74.38993748786929</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.89551629595808</v>
+        <v>49.72770317072322</v>
       </c>
       <c r="R33" t="n">
-        <v>19.89131833031827</v>
+        <v>24.18723770219757</v>
       </c>
       <c r="S33" t="n">
-        <v>5.950814716650026</v>
+        <v>7.236009583837709</v>
       </c>
       <c r="T33" t="n">
-        <v>1.291333819268329</v>
+        <v>1.570222622797369</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02562931375621387</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.3265986867731733</v>
       </c>
       <c r="H34" t="n">
-        <v>2.38801966456607</v>
+        <v>2.90375923331058</v>
       </c>
       <c r="I34" t="n">
-        <v>8.077268967673369</v>
+        <v>9.821713234960525</v>
       </c>
       <c r="J34" t="n">
-        <v>18.98939563530707</v>
+        <v>23.09052715486335</v>
       </c>
       <c r="K34" t="n">
-        <v>31.20541034064861</v>
+        <v>37.9448292451014</v>
       </c>
       <c r="L34" t="n">
-        <v>39.93218158927759</v>
+        <v>48.55631748625889</v>
       </c>
       <c r="M34" t="n">
-        <v>42.10288658089234</v>
+        <v>51.19582869118025</v>
       </c>
       <c r="N34" t="n">
-        <v>41.10177404257735</v>
+        <v>49.97850631320755</v>
       </c>
       <c r="O34" t="n">
-        <v>37.96414084322417</v>
+        <v>46.16323983590274</v>
       </c>
       <c r="P34" t="n">
-        <v>32.48488099937317</v>
+        <v>39.50062662572996</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.4908477815113</v>
+        <v>27.34818639879727</v>
       </c>
       <c r="R34" t="n">
-        <v>12.07683564513678</v>
+        <v>14.68506458891014</v>
       </c>
       <c r="S34" t="n">
-        <v>4.680811551097292</v>
+        <v>5.69172438676521</v>
       </c>
       <c r="T34" t="n">
-        <v>1.147616812214777</v>
+        <v>1.395467116212649</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01781447382399129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.7280957475802123</v>
       </c>
       <c r="H35" t="n">
-        <v>6.132234546038871</v>
+        <v>7.456610574905852</v>
       </c>
       <c r="I35" t="n">
-        <v>23.08438641144037</v>
+        <v>28.06991130858616</v>
       </c>
       <c r="J35" t="n">
-        <v>50.82052891999189</v>
+        <v>61.79621645618611</v>
       </c>
       <c r="K35" t="n">
-        <v>76.16679898798412</v>
+        <v>92.61650945125652</v>
       </c>
       <c r="L35" t="n">
-        <v>94.49164927367555</v>
+        <v>114.8989696862645</v>
       </c>
       <c r="M35" t="n">
-        <v>105.1401664086072</v>
+        <v>127.8472424372941</v>
       </c>
       <c r="N35" t="n">
-        <v>106.8414442217582</v>
+        <v>129.9159444801064</v>
       </c>
       <c r="O35" t="n">
-        <v>100.8873461119402</v>
+        <v>122.6759423901056</v>
       </c>
       <c r="P35" t="n">
-        <v>86.10501579529576</v>
+        <v>104.7010786217191</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.66128093089763</v>
+        <v>78.62614966150271</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>45.73624450393555</v>
       </c>
       <c r="S35" t="n">
-        <v>13.64465223657863</v>
+        <v>16.59148184798411</v>
       </c>
       <c r="T35" t="n">
-        <v>2.621150418677912</v>
+        <v>3.187239135032381</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.05824765980641698</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3895655690944507</v>
       </c>
       <c r="H36" t="n">
-        <v>3.094142622447076</v>
+        <v>3.762383259412196</v>
       </c>
       <c r="I36" t="n">
-        <v>11.03043577938672</v>
+        <v>13.41267419908526</v>
       </c>
       <c r="J36" t="n">
-        <v>30.26835886926997</v>
+        <v>36.80540317484019</v>
       </c>
       <c r="K36" t="n">
-        <v>51.73344638085104</v>
+        <v>62.90629630416839</v>
       </c>
       <c r="L36" t="n">
-        <v>69.56200296287125</v>
+        <v>84.58527850009116</v>
       </c>
       <c r="M36" t="n">
-        <v>81.17557642995801</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>83.32405239259271</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>76.22522926425364</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
-        <v>61.17746661948265</v>
+        <v>74.38993748786929</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.89551629595808</v>
+        <v>49.72770317072322</v>
       </c>
       <c r="R36" t="n">
-        <v>19.89131833031827</v>
+        <v>24.18723770219757</v>
       </c>
       <c r="S36" t="n">
-        <v>5.950814716650026</v>
+        <v>7.236009583837709</v>
       </c>
       <c r="T36" t="n">
-        <v>1.291333819268329</v>
+        <v>1.570222622797369</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02562931375621387</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.3265986867731733</v>
       </c>
       <c r="H37" t="n">
-        <v>2.38801966456607</v>
+        <v>2.90375923331058</v>
       </c>
       <c r="I37" t="n">
-        <v>8.077268967673369</v>
+        <v>9.821713234960525</v>
       </c>
       <c r="J37" t="n">
-        <v>18.98939563530707</v>
+        <v>23.09052715486335</v>
       </c>
       <c r="K37" t="n">
-        <v>31.20541034064861</v>
+        <v>37.9448292451014</v>
       </c>
       <c r="L37" t="n">
-        <v>39.93218158927759</v>
+        <v>48.55631748625889</v>
       </c>
       <c r="M37" t="n">
-        <v>42.10288658089234</v>
+        <v>51.19582869118025</v>
       </c>
       <c r="N37" t="n">
-        <v>41.10177404257735</v>
+        <v>49.97850631320755</v>
       </c>
       <c r="O37" t="n">
-        <v>37.96414084322417</v>
+        <v>46.16323983590274</v>
       </c>
       <c r="P37" t="n">
-        <v>32.48488099937317</v>
+        <v>39.50062662572996</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.4908477815113</v>
+        <v>27.34818639879727</v>
       </c>
       <c r="R37" t="n">
-        <v>12.07683564513678</v>
+        <v>14.68506458891014</v>
       </c>
       <c r="S37" t="n">
-        <v>4.680811551097292</v>
+        <v>5.69172438676521</v>
       </c>
       <c r="T37" t="n">
-        <v>1.147616812214777</v>
+        <v>1.395467116212649</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01781447382399129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.7280957475802123</v>
       </c>
       <c r="H38" t="n">
-        <v>6.132234546038871</v>
+        <v>7.456610574905852</v>
       </c>
       <c r="I38" t="n">
-        <v>23.08438641144037</v>
+        <v>28.06991130858616</v>
       </c>
       <c r="J38" t="n">
-        <v>50.82052891999189</v>
+        <v>61.79621645618611</v>
       </c>
       <c r="K38" t="n">
-        <v>76.16679898798412</v>
+        <v>92.61650945125652</v>
       </c>
       <c r="L38" t="n">
-        <v>94.49164927367555</v>
+        <v>114.8989696862645</v>
       </c>
       <c r="M38" t="n">
-        <v>105.1401664086072</v>
+        <v>127.8472424372941</v>
       </c>
       <c r="N38" t="n">
-        <v>106.8414442217582</v>
+        <v>129.9159444801064</v>
       </c>
       <c r="O38" t="n">
-        <v>100.8873461119402</v>
+        <v>122.6759423901056</v>
       </c>
       <c r="P38" t="n">
-        <v>86.10501579529576</v>
+        <v>104.7010786217191</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.66128093089763</v>
+        <v>78.62614966150271</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>45.73624450393555</v>
       </c>
       <c r="S38" t="n">
-        <v>13.64465223657863</v>
+        <v>16.59148184798411</v>
       </c>
       <c r="T38" t="n">
-        <v>2.621150418677912</v>
+        <v>3.187239135032381</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.05824765980641698</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3895655690944507</v>
       </c>
       <c r="H39" t="n">
-        <v>3.094142622447076</v>
+        <v>3.762383259412196</v>
       </c>
       <c r="I39" t="n">
-        <v>11.03043577938672</v>
+        <v>13.41267419908526</v>
       </c>
       <c r="J39" t="n">
-        <v>30.26835886926997</v>
+        <v>36.80540317484019</v>
       </c>
       <c r="K39" t="n">
-        <v>51.73344638085104</v>
+        <v>62.90629630416839</v>
       </c>
       <c r="L39" t="n">
-        <v>69.56200296287125</v>
+        <v>84.58527850009116</v>
       </c>
       <c r="M39" t="n">
-        <v>81.17557642995801</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>83.32405239259271</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>76.22522926425364</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>61.17746661948265</v>
+        <v>74.38993748786929</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.89551629595808</v>
+        <v>49.72770317072322</v>
       </c>
       <c r="R39" t="n">
-        <v>19.89131833031827</v>
+        <v>24.18723770219757</v>
       </c>
       <c r="S39" t="n">
-        <v>5.950814716650026</v>
+        <v>7.236009583837709</v>
       </c>
       <c r="T39" t="n">
-        <v>1.291333819268329</v>
+        <v>1.570222622797369</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02562931375621387</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.3265986867731733</v>
       </c>
       <c r="H40" t="n">
-        <v>2.38801966456607</v>
+        <v>2.90375923331058</v>
       </c>
       <c r="I40" t="n">
-        <v>8.077268967673369</v>
+        <v>9.821713234960525</v>
       </c>
       <c r="J40" t="n">
-        <v>18.98939563530707</v>
+        <v>23.09052715486335</v>
       </c>
       <c r="K40" t="n">
-        <v>31.20541034064861</v>
+        <v>37.9448292451014</v>
       </c>
       <c r="L40" t="n">
-        <v>39.93218158927759</v>
+        <v>48.55631748625889</v>
       </c>
       <c r="M40" t="n">
-        <v>42.10288658089234</v>
+        <v>51.19582869118025</v>
       </c>
       <c r="N40" t="n">
-        <v>41.10177404257735</v>
+        <v>49.97850631320755</v>
       </c>
       <c r="O40" t="n">
-        <v>37.96414084322417</v>
+        <v>46.16323983590274</v>
       </c>
       <c r="P40" t="n">
-        <v>32.48488099937317</v>
+        <v>39.50062662572996</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.4908477815113</v>
+        <v>27.34818639879727</v>
       </c>
       <c r="R40" t="n">
-        <v>12.07683564513678</v>
+        <v>14.68506458891014</v>
       </c>
       <c r="S40" t="n">
-        <v>4.680811551097292</v>
+        <v>5.69172438676521</v>
       </c>
       <c r="T40" t="n">
-        <v>1.147616812214777</v>
+        <v>1.395467116212649</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01781447382399129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.7280957475802123</v>
       </c>
       <c r="H41" t="n">
-        <v>6.132234546038871</v>
+        <v>7.456610574905852</v>
       </c>
       <c r="I41" t="n">
-        <v>23.08438641144037</v>
+        <v>28.06991130858616</v>
       </c>
       <c r="J41" t="n">
-        <v>50.82052891999189</v>
+        <v>61.79621645618611</v>
       </c>
       <c r="K41" t="n">
-        <v>76.16679898798412</v>
+        <v>92.61650945125652</v>
       </c>
       <c r="L41" t="n">
-        <v>94.49164927367555</v>
+        <v>114.8989696862645</v>
       </c>
       <c r="M41" t="n">
-        <v>105.1401664086072</v>
+        <v>127.8472424372941</v>
       </c>
       <c r="N41" t="n">
-        <v>106.8414442217582</v>
+        <v>129.9159444801064</v>
       </c>
       <c r="O41" t="n">
-        <v>100.8873461119402</v>
+        <v>122.6759423901056</v>
       </c>
       <c r="P41" t="n">
-        <v>86.10501579529576</v>
+        <v>104.7010786217191</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.66128093089763</v>
+        <v>78.62614966150271</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>45.73624450393555</v>
       </c>
       <c r="S41" t="n">
-        <v>13.64465223657863</v>
+        <v>16.59148184798411</v>
       </c>
       <c r="T41" t="n">
-        <v>2.621150418677912</v>
+        <v>3.187239135032381</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.05824765980641698</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3895655690944507</v>
       </c>
       <c r="H42" t="n">
-        <v>3.094142622447076</v>
+        <v>3.762383259412196</v>
       </c>
       <c r="I42" t="n">
-        <v>11.03043577938672</v>
+        <v>13.41267419908526</v>
       </c>
       <c r="J42" t="n">
-        <v>30.26835886926997</v>
+        <v>36.80540317484019</v>
       </c>
       <c r="K42" t="n">
-        <v>51.73344638085104</v>
+        <v>62.90629630416839</v>
       </c>
       <c r="L42" t="n">
-        <v>69.56200296287125</v>
+        <v>84.58527850009116</v>
       </c>
       <c r="M42" t="n">
-        <v>81.17557642995801</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>83.32405239259271</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>76.22522926425364</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>61.17746661948265</v>
+        <v>74.38993748786929</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.89551629595808</v>
+        <v>49.72770317072322</v>
       </c>
       <c r="R42" t="n">
-        <v>19.89131833031827</v>
+        <v>24.18723770219757</v>
       </c>
       <c r="S42" t="n">
-        <v>5.950814716650026</v>
+        <v>7.236009583837709</v>
       </c>
       <c r="T42" t="n">
-        <v>1.291333819268329</v>
+        <v>1.570222622797369</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02562931375621387</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.3265986867731733</v>
       </c>
       <c r="H43" t="n">
-        <v>2.38801966456607</v>
+        <v>2.90375923331058</v>
       </c>
       <c r="I43" t="n">
-        <v>8.077268967673369</v>
+        <v>9.821713234960525</v>
       </c>
       <c r="J43" t="n">
-        <v>18.98939563530707</v>
+        <v>23.09052715486335</v>
       </c>
       <c r="K43" t="n">
-        <v>31.20541034064861</v>
+        <v>37.9448292451014</v>
       </c>
       <c r="L43" t="n">
-        <v>39.93218158927759</v>
+        <v>48.55631748625889</v>
       </c>
       <c r="M43" t="n">
-        <v>42.10288658089234</v>
+        <v>51.19582869118025</v>
       </c>
       <c r="N43" t="n">
-        <v>41.10177404257735</v>
+        <v>49.97850631320755</v>
       </c>
       <c r="O43" t="n">
-        <v>37.96414084322417</v>
+        <v>46.16323983590274</v>
       </c>
       <c r="P43" t="n">
-        <v>32.48488099937317</v>
+        <v>39.50062662572996</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.4908477815113</v>
+        <v>27.34818639879727</v>
       </c>
       <c r="R43" t="n">
-        <v>12.07683564513678</v>
+        <v>14.68506458891014</v>
       </c>
       <c r="S43" t="n">
-        <v>4.680811551097292</v>
+        <v>5.69172438676521</v>
       </c>
       <c r="T43" t="n">
-        <v>1.147616812214777</v>
+        <v>1.395467116212649</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01781447382399129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.8357137367788041</v>
       </c>
       <c r="H44" t="n">
-        <v>6.132234546038871</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I44" t="n">
-        <v>23.08438641144037</v>
+        <v>32.21885383716488</v>
       </c>
       <c r="J44" t="n">
-        <v>50.82052891999189</v>
+        <v>70.93015876693009</v>
       </c>
       <c r="K44" t="n">
-        <v>76.16679898798412</v>
+        <v>106.3059212447769</v>
       </c>
       <c r="L44" t="n">
-        <v>94.49164927367555</v>
+        <v>131.8818955167212</v>
       </c>
       <c r="M44" t="n">
-        <v>105.1401664086072</v>
+        <v>146.7440196831613</v>
       </c>
       <c r="N44" t="n">
-        <v>106.8414442217582</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O44" t="n">
-        <v>100.8873461119402</v>
+        <v>140.8083628676899</v>
       </c>
       <c r="P44" t="n">
-        <v>86.10501579529576</v>
+        <v>120.1766799909631</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.66128093089763</v>
+        <v>90.24768179257215</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>52.49640301793161</v>
       </c>
       <c r="S44" t="n">
-        <v>13.64465223657863</v>
+        <v>19.04382677684702</v>
       </c>
       <c r="T44" t="n">
-        <v>2.621150418677912</v>
+        <v>3.658336882749217</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.06685709894230432</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.4471462696359426</v>
       </c>
       <c r="H45" t="n">
-        <v>3.094142622447076</v>
+        <v>4.318491604115551</v>
       </c>
       <c r="I45" t="n">
-        <v>11.03043577938672</v>
+        <v>15.39516761685153</v>
       </c>
       <c r="J45" t="n">
-        <v>30.26835886926997</v>
+        <v>42.24551664135018</v>
       </c>
       <c r="K45" t="n">
-        <v>51.73344638085104</v>
+        <v>72.20431670695834</v>
       </c>
       <c r="L45" t="n">
-        <v>69.56200296287125</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>81.17557642995801</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>83.32405239259271</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>76.22522926425364</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>61.17746661948265</v>
+        <v>85.38532582197224</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.89551629595808</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R45" t="n">
-        <v>19.89131833031827</v>
+        <v>27.76229207441406</v>
       </c>
       <c r="S45" t="n">
-        <v>5.950814716650026</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T45" t="n">
-        <v>1.291333819268329</v>
+        <v>1.802313253488733</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02941751773920676</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.3748724118460663</v>
       </c>
       <c r="H46" t="n">
-        <v>2.38801966456607</v>
+        <v>3.33295653441321</v>
       </c>
       <c r="I46" t="n">
-        <v>8.077268967673369</v>
+        <v>11.27343580351625</v>
       </c>
       <c r="J46" t="n">
-        <v>18.98939563530707</v>
+        <v>26.50347951751689</v>
       </c>
       <c r="K46" t="n">
-        <v>31.20541034064861</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L46" t="n">
-        <v>39.93218158927759</v>
+        <v>55.73330384845972</v>
       </c>
       <c r="M46" t="n">
-        <v>42.10288658089234</v>
+        <v>58.76295452237927</v>
       </c>
       <c r="N46" t="n">
-        <v>41.10177404257735</v>
+        <v>57.36570280549853</v>
       </c>
       <c r="O46" t="n">
-        <v>37.96414084322417</v>
+        <v>52.9865114489331</v>
       </c>
       <c r="P46" t="n">
-        <v>32.48488099937317</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.4908477815113</v>
+        <v>31.39045259558288</v>
       </c>
       <c r="R46" t="n">
-        <v>12.07683564513678</v>
+        <v>16.85562680900585</v>
       </c>
       <c r="S46" t="n">
-        <v>4.680811551097292</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T46" t="n">
-        <v>1.147616812214777</v>
+        <v>1.601727577887737</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.02044758610069455</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_8_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_8_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79959.88664028433</v>
+        <v>67845.76441292281</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18383057.98799271</v>
+        <v>18350076.00849744</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21082152.59048191</v>
+        <v>21084729.79300794</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2787624.593309967</v>
+        <v>2788299.980979186</v>
       </c>
     </row>
     <row r="11">
@@ -8689,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.88362148615999</v>
+        <v>55.88362148616</v>
       </c>
       <c r="K11" t="n">
-        <v>50.44189372798084</v>
+        <v>50.44189372798085</v>
       </c>
       <c r="L11" t="n">
-        <v>38.34920004422723</v>
+        <v>38.34920004422725</v>
       </c>
       <c r="M11" t="n">
         <v>21.8778091604332</v>
       </c>
       <c r="N11" t="n">
-        <v>19.20254685767773</v>
+        <v>19.20254685767776</v>
       </c>
       <c r="O11" t="n">
-        <v>26.88789503399079</v>
+        <v>26.8878950339908</v>
       </c>
       <c r="P11" t="n">
-        <v>45.60036861920611</v>
+        <v>45.60036861920612</v>
       </c>
       <c r="Q11" t="n">
         <v>65.87254875688946</v>
@@ -8862,7 +8862,7 @@
         <v>33.01709758919402</v>
       </c>
       <c r="O13" t="n">
-        <v>43.83351015779507</v>
+        <v>43.83351015779508</v>
       </c>
       <c r="P13" t="n">
         <v>50.02257600621597</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>55.88362148615999</v>
+        <v>55.88362148616</v>
       </c>
       <c r="K14" t="n">
-        <v>50.44189372798084</v>
+        <v>50.44189372798085</v>
       </c>
       <c r="L14" t="n">
-        <v>38.34920004422723</v>
+        <v>38.34920004422726</v>
       </c>
       <c r="M14" t="n">
-        <v>21.8778091604332</v>
+        <v>21.87780916043322</v>
       </c>
       <c r="N14" t="n">
-        <v>19.20254685767773</v>
+        <v>19.20254685767776</v>
       </c>
       <c r="O14" t="n">
-        <v>26.88789503399079</v>
+        <v>26.8878950339908</v>
       </c>
       <c r="P14" t="n">
-        <v>45.60036861920611</v>
+        <v>45.60036861920612</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.87254875688946</v>
+        <v>65.87254875688947</v>
       </c>
       <c r="R14" t="n">
         <v>94.39435507525033</v>
@@ -9005,13 +9005,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>45.63905415849315</v>
+        <v>45.63905415849316</v>
       </c>
       <c r="K15" t="n">
-        <v>26.69063902916496</v>
+        <v>26.69063902916497</v>
       </c>
       <c r="L15" t="n">
-        <v>5.475068356827066</v>
+        <v>5.47506835682708</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>12.69342733144536</v>
+        <v>12.69342733144538</v>
       </c>
       <c r="Q15" t="n">
         <v>41.26044998519077</v>
@@ -9090,7 +9090,7 @@
         <v>45.91378856574659</v>
       </c>
       <c r="L16" t="n">
-        <v>39.11872209654599</v>
+        <v>39.118722096546</v>
       </c>
       <c r="M16" t="n">
         <v>39.10593087476303</v>
@@ -9099,7 +9099,7 @@
         <v>33.01709758919402</v>
       </c>
       <c r="O16" t="n">
-        <v>43.83351015779507</v>
+        <v>43.83351015779508</v>
       </c>
       <c r="P16" t="n">
         <v>50.02257600621597</v>
@@ -9163,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>55.88362148615999</v>
+        <v>55.88362148616</v>
       </c>
       <c r="K17" t="n">
-        <v>50.44189372798084</v>
+        <v>50.44189372798085</v>
       </c>
       <c r="L17" t="n">
-        <v>38.34920004422723</v>
+        <v>38.34920004422725</v>
       </c>
       <c r="M17" t="n">
         <v>21.8778091604332</v>
       </c>
       <c r="N17" t="n">
-        <v>19.20254685767773</v>
+        <v>19.20254685767776</v>
       </c>
       <c r="O17" t="n">
-        <v>26.88789503399079</v>
+        <v>26.8878950339908</v>
       </c>
       <c r="P17" t="n">
-        <v>45.60036861920611</v>
+        <v>45.60036861920612</v>
       </c>
       <c r="Q17" t="n">
         <v>65.87254875688946</v>
@@ -9336,7 +9336,7 @@
         <v>33.01709758919402</v>
       </c>
       <c r="O19" t="n">
-        <v>43.83351015779507</v>
+        <v>43.83351015779508</v>
       </c>
       <c r="P19" t="n">
         <v>50.02257600621597</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>55.88362148615999</v>
+        <v>55.88362148616</v>
       </c>
       <c r="K20" t="n">
-        <v>50.44189372798084</v>
+        <v>50.44189372798085</v>
       </c>
       <c r="L20" t="n">
-        <v>38.34920004422723</v>
+        <v>38.34920004422726</v>
       </c>
       <c r="M20" t="n">
-        <v>21.8778091604332</v>
+        <v>21.87780916043322</v>
       </c>
       <c r="N20" t="n">
-        <v>19.20254685767773</v>
+        <v>19.20254685767776</v>
       </c>
       <c r="O20" t="n">
-        <v>26.88789503399079</v>
+        <v>26.8878950339908</v>
       </c>
       <c r="P20" t="n">
-        <v>45.60036861920611</v>
+        <v>45.60036861920612</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.87254875688946</v>
+        <v>65.87254875688947</v>
       </c>
       <c r="R20" t="n">
         <v>94.39435507525033</v>
@@ -9479,13 +9479,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>45.63905415849315</v>
+        <v>45.63905415849316</v>
       </c>
       <c r="K21" t="n">
-        <v>26.69063902916496</v>
+        <v>26.69063902916497</v>
       </c>
       <c r="L21" t="n">
-        <v>5.475068356827066</v>
+        <v>5.47506835682708</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>12.69342733144536</v>
+        <v>12.69342733144538</v>
       </c>
       <c r="Q21" t="n">
         <v>41.26044998519077</v>
@@ -9564,7 +9564,7 @@
         <v>45.91378856574659</v>
       </c>
       <c r="L22" t="n">
-        <v>39.11872209654599</v>
+        <v>39.118722096546</v>
       </c>
       <c r="M22" t="n">
         <v>39.10593087476303</v>
@@ -9573,7 +9573,7 @@
         <v>33.01709758919402</v>
       </c>
       <c r="O22" t="n">
-        <v>43.83351015779507</v>
+        <v>43.83351015779508</v>
       </c>
       <c r="P22" t="n">
         <v>50.02257600621597</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>55.88362148615999</v>
+        <v>55.88362148616</v>
       </c>
       <c r="K23" t="n">
-        <v>50.44189372798084</v>
+        <v>50.44189372798085</v>
       </c>
       <c r="L23" t="n">
-        <v>38.34920004422723</v>
+        <v>38.34920004422726</v>
       </c>
       <c r="M23" t="n">
-        <v>21.8778091604332</v>
+        <v>21.87780916043322</v>
       </c>
       <c r="N23" t="n">
-        <v>19.20254685767773</v>
+        <v>19.20254685767776</v>
       </c>
       <c r="O23" t="n">
-        <v>26.88789503399079</v>
+        <v>26.8878950339908</v>
       </c>
       <c r="P23" t="n">
-        <v>45.60036861920611</v>
+        <v>45.60036861920612</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.87254875688946</v>
+        <v>65.87254875688947</v>
       </c>
       <c r="R23" t="n">
         <v>94.39435507525033</v>
@@ -9716,13 +9716,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>45.63905415849315</v>
+        <v>45.63905415849316</v>
       </c>
       <c r="K24" t="n">
-        <v>26.69063902916496</v>
+        <v>26.69063902916497</v>
       </c>
       <c r="L24" t="n">
-        <v>5.475068356827066</v>
+        <v>5.47506835682708</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>12.69342733144536</v>
+        <v>12.69342733144538</v>
       </c>
       <c r="Q24" t="n">
         <v>41.26044998519077</v>
@@ -9801,7 +9801,7 @@
         <v>45.91378856574659</v>
       </c>
       <c r="L25" t="n">
-        <v>39.11872209654599</v>
+        <v>39.118722096546</v>
       </c>
       <c r="M25" t="n">
         <v>39.10593087476303</v>
@@ -9810,7 +9810,7 @@
         <v>33.01709758919402</v>
       </c>
       <c r="O25" t="n">
-        <v>43.83351015779507</v>
+        <v>43.83351015779508</v>
       </c>
       <c r="P25" t="n">
         <v>50.02257600621597</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>55.88362148615999</v>
+        <v>55.88362148616</v>
       </c>
       <c r="K26" t="n">
-        <v>50.44189372798084</v>
+        <v>50.44189372798085</v>
       </c>
       <c r="L26" t="n">
-        <v>38.34920004422723</v>
+        <v>38.34920004422726</v>
       </c>
       <c r="M26" t="n">
-        <v>21.8778091604332</v>
+        <v>21.87780916043322</v>
       </c>
       <c r="N26" t="n">
-        <v>19.20254685767773</v>
+        <v>19.20254685767776</v>
       </c>
       <c r="O26" t="n">
-        <v>26.88789503399079</v>
+        <v>26.8878950339908</v>
       </c>
       <c r="P26" t="n">
-        <v>45.60036861920611</v>
+        <v>45.60036861920612</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.87254875688946</v>
+        <v>65.87254875688947</v>
       </c>
       <c r="R26" t="n">
         <v>94.39435507525033</v>
@@ -9953,13 +9953,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>45.63905415849315</v>
+        <v>45.63905415849316</v>
       </c>
       <c r="K27" t="n">
-        <v>26.69063902916496</v>
+        <v>26.69063902916497</v>
       </c>
       <c r="L27" t="n">
-        <v>5.475068356827066</v>
+        <v>5.47506835682708</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>12.69342733144536</v>
+        <v>12.69342733144538</v>
       </c>
       <c r="Q27" t="n">
         <v>41.26044998519077</v>
@@ -10038,7 +10038,7 @@
         <v>45.91378856574659</v>
       </c>
       <c r="L28" t="n">
-        <v>39.11872209654599</v>
+        <v>39.118722096546</v>
       </c>
       <c r="M28" t="n">
         <v>39.10593087476303</v>
@@ -10047,7 +10047,7 @@
         <v>33.01709758919402</v>
       </c>
       <c r="O28" t="n">
-        <v>43.83351015779507</v>
+        <v>43.83351015779508</v>
       </c>
       <c r="P28" t="n">
         <v>50.02257600621597</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>55.88362148615999</v>
+        <v>55.88362148616</v>
       </c>
       <c r="K29" t="n">
-        <v>50.44189372798084</v>
+        <v>50.44189372798085</v>
       </c>
       <c r="L29" t="n">
-        <v>38.34920004422723</v>
+        <v>38.34920004422726</v>
       </c>
       <c r="M29" t="n">
-        <v>21.8778091604332</v>
+        <v>21.87780916043322</v>
       </c>
       <c r="N29" t="n">
-        <v>19.20254685767773</v>
+        <v>19.20254685767776</v>
       </c>
       <c r="O29" t="n">
-        <v>26.88789503399079</v>
+        <v>26.8878950339908</v>
       </c>
       <c r="P29" t="n">
-        <v>45.60036861920611</v>
+        <v>45.60036861920612</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.87254875688946</v>
+        <v>65.87254875688947</v>
       </c>
       <c r="R29" t="n">
         <v>94.39435507525033</v>
@@ -10190,13 +10190,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>45.63905415849315</v>
+        <v>45.63905415849316</v>
       </c>
       <c r="K30" t="n">
-        <v>26.69063902916496</v>
+        <v>26.69063902916497</v>
       </c>
       <c r="L30" t="n">
-        <v>5.475068356827066</v>
+        <v>5.47506835682708</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>12.69342733144536</v>
+        <v>12.69342733144538</v>
       </c>
       <c r="Q30" t="n">
         <v>41.26044998519077</v>
@@ -10275,7 +10275,7 @@
         <v>45.91378856574659</v>
       </c>
       <c r="L31" t="n">
-        <v>39.11872209654599</v>
+        <v>39.118722096546</v>
       </c>
       <c r="M31" t="n">
         <v>39.10593087476303</v>
@@ -10284,7 +10284,7 @@
         <v>33.01709758919402</v>
       </c>
       <c r="O31" t="n">
-        <v>43.83351015779507</v>
+        <v>43.83351015779508</v>
       </c>
       <c r="P31" t="n">
         <v>50.02257600621597</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>55.88362148615999</v>
+        <v>55.88362148616</v>
       </c>
       <c r="K32" t="n">
-        <v>50.44189372798084</v>
+        <v>50.44189372798085</v>
       </c>
       <c r="L32" t="n">
-        <v>38.34920004422723</v>
+        <v>38.34920004422726</v>
       </c>
       <c r="M32" t="n">
-        <v>21.8778091604332</v>
+        <v>21.87780916043322</v>
       </c>
       <c r="N32" t="n">
-        <v>19.20254685767773</v>
+        <v>19.20254685767776</v>
       </c>
       <c r="O32" t="n">
-        <v>26.88789503399079</v>
+        <v>26.8878950339908</v>
       </c>
       <c r="P32" t="n">
-        <v>45.60036861920611</v>
+        <v>45.60036861920612</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.87254875688946</v>
+        <v>65.87254875688947</v>
       </c>
       <c r="R32" t="n">
         <v>94.39435507525033</v>
@@ -10427,13 +10427,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>45.63905415849315</v>
+        <v>45.63905415849316</v>
       </c>
       <c r="K33" t="n">
-        <v>26.69063902916496</v>
+        <v>26.69063902916497</v>
       </c>
       <c r="L33" t="n">
-        <v>5.475068356827066</v>
+        <v>5.47506835682708</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>12.69342733144536</v>
+        <v>12.69342733144538</v>
       </c>
       <c r="Q33" t="n">
         <v>41.26044998519077</v>
@@ -10512,7 +10512,7 @@
         <v>45.91378856574659</v>
       </c>
       <c r="L34" t="n">
-        <v>39.11872209654599</v>
+        <v>39.118722096546</v>
       </c>
       <c r="M34" t="n">
         <v>39.10593087476303</v>
@@ -10521,7 +10521,7 @@
         <v>33.01709758919402</v>
       </c>
       <c r="O34" t="n">
-        <v>43.83351015779507</v>
+        <v>43.83351015779508</v>
       </c>
       <c r="P34" t="n">
         <v>50.02257600621597</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>55.88362148615999</v>
+        <v>55.88362148616</v>
       </c>
       <c r="K35" t="n">
-        <v>50.44189372798084</v>
+        <v>50.44189372798085</v>
       </c>
       <c r="L35" t="n">
-        <v>38.34920004422723</v>
+        <v>38.34920004422726</v>
       </c>
       <c r="M35" t="n">
-        <v>21.8778091604332</v>
+        <v>21.87780916043322</v>
       </c>
       <c r="N35" t="n">
-        <v>19.20254685767773</v>
+        <v>19.20254685767776</v>
       </c>
       <c r="O35" t="n">
-        <v>26.88789503399079</v>
+        <v>26.8878950339908</v>
       </c>
       <c r="P35" t="n">
-        <v>45.60036861920611</v>
+        <v>45.60036861920612</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.87254875688946</v>
+        <v>65.87254875688947</v>
       </c>
       <c r="R35" t="n">
         <v>94.39435507525033</v>
@@ -10664,13 +10664,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>45.63905415849315</v>
+        <v>45.63905415849316</v>
       </c>
       <c r="K36" t="n">
-        <v>26.69063902916496</v>
+        <v>26.69063902916497</v>
       </c>
       <c r="L36" t="n">
-        <v>5.475068356827066</v>
+        <v>5.47506835682708</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>12.69342733144536</v>
+        <v>12.69342733144538</v>
       </c>
       <c r="Q36" t="n">
         <v>41.26044998519077</v>
@@ -10749,7 +10749,7 @@
         <v>45.91378856574659</v>
       </c>
       <c r="L37" t="n">
-        <v>39.11872209654599</v>
+        <v>39.118722096546</v>
       </c>
       <c r="M37" t="n">
         <v>39.10593087476303</v>
@@ -10758,7 +10758,7 @@
         <v>33.01709758919402</v>
       </c>
       <c r="O37" t="n">
-        <v>43.83351015779507</v>
+        <v>43.83351015779508</v>
       </c>
       <c r="P37" t="n">
         <v>50.02257600621597</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>55.88362148615999</v>
+        <v>55.88362148616</v>
       </c>
       <c r="K38" t="n">
-        <v>50.44189372798084</v>
+        <v>50.44189372798085</v>
       </c>
       <c r="L38" t="n">
-        <v>38.34920004422723</v>
+        <v>38.34920004422726</v>
       </c>
       <c r="M38" t="n">
-        <v>21.8778091604332</v>
+        <v>21.87780916043322</v>
       </c>
       <c r="N38" t="n">
-        <v>19.20254685767773</v>
+        <v>19.20254685767776</v>
       </c>
       <c r="O38" t="n">
-        <v>26.88789503399079</v>
+        <v>26.8878950339908</v>
       </c>
       <c r="P38" t="n">
-        <v>45.60036861920611</v>
+        <v>45.60036861920612</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.87254875688946</v>
+        <v>65.87254875688947</v>
       </c>
       <c r="R38" t="n">
         <v>94.39435507525033</v>
@@ -10901,13 +10901,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>45.63905415849315</v>
+        <v>45.63905415849316</v>
       </c>
       <c r="K39" t="n">
-        <v>26.69063902916496</v>
+        <v>26.69063902916497</v>
       </c>
       <c r="L39" t="n">
-        <v>5.475068356827066</v>
+        <v>5.47506835682708</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>12.69342733144536</v>
+        <v>12.69342733144538</v>
       </c>
       <c r="Q39" t="n">
         <v>41.26044998519077</v>
@@ -10986,7 +10986,7 @@
         <v>45.91378856574659</v>
       </c>
       <c r="L40" t="n">
-        <v>39.11872209654599</v>
+        <v>39.118722096546</v>
       </c>
       <c r="M40" t="n">
         <v>39.10593087476303</v>
@@ -10995,7 +10995,7 @@
         <v>33.01709758919402</v>
       </c>
       <c r="O40" t="n">
-        <v>43.83351015779507</v>
+        <v>43.83351015779508</v>
       </c>
       <c r="P40" t="n">
         <v>50.02257600621597</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>55.88362148615999</v>
+        <v>55.88362148616</v>
       </c>
       <c r="K41" t="n">
-        <v>50.44189372798084</v>
+        <v>50.44189372798085</v>
       </c>
       <c r="L41" t="n">
-        <v>38.34920004422723</v>
+        <v>38.34920004422726</v>
       </c>
       <c r="M41" t="n">
-        <v>21.8778091604332</v>
+        <v>21.87780916043322</v>
       </c>
       <c r="N41" t="n">
-        <v>19.20254685767773</v>
+        <v>19.20254685767776</v>
       </c>
       <c r="O41" t="n">
-        <v>26.88789503399079</v>
+        <v>26.8878950339908</v>
       </c>
       <c r="P41" t="n">
-        <v>45.60036861920611</v>
+        <v>45.60036861920612</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.87254875688946</v>
+        <v>65.87254875688947</v>
       </c>
       <c r="R41" t="n">
         <v>94.39435507525033</v>
@@ -11138,13 +11138,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>45.63905415849315</v>
+        <v>45.63905415849316</v>
       </c>
       <c r="K42" t="n">
-        <v>26.69063902916496</v>
+        <v>26.69063902916497</v>
       </c>
       <c r="L42" t="n">
-        <v>5.475068356827066</v>
+        <v>5.47506835682708</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>12.69342733144536</v>
+        <v>12.69342733144538</v>
       </c>
       <c r="Q42" t="n">
         <v>41.26044998519077</v>
@@ -11223,7 +11223,7 @@
         <v>45.91378856574659</v>
       </c>
       <c r="L43" t="n">
-        <v>39.11872209654599</v>
+        <v>39.118722096546</v>
       </c>
       <c r="M43" t="n">
         <v>39.10593087476303</v>
@@ -11232,7 +11232,7 @@
         <v>33.01709758919402</v>
       </c>
       <c r="O43" t="n">
-        <v>43.83351015779507</v>
+        <v>43.83351015779508</v>
       </c>
       <c r="P43" t="n">
         <v>50.02257600621597</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>46.74967917541601</v>
+        <v>55.88362148616</v>
       </c>
       <c r="K44" t="n">
-        <v>36.75248193446046</v>
+        <v>50.44189372798085</v>
       </c>
       <c r="L44" t="n">
-        <v>21.36627421377045</v>
+        <v>38.34920004422726</v>
       </c>
       <c r="M44" t="n">
-        <v>2.981031914565961</v>
+        <v>21.87780916043322</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>19.20254685767776</v>
       </c>
       <c r="O44" t="n">
-        <v>8.75547455640654</v>
+        <v>26.8878950339908</v>
       </c>
       <c r="P44" t="n">
-        <v>30.12476724996209</v>
+        <v>45.60036861920612</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.25101662582001</v>
+        <v>65.87254875688947</v>
       </c>
       <c r="R44" t="n">
-        <v>87.63419656125427</v>
+        <v>94.39435507525033</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>40.19894069198317</v>
+        <v>45.63905415849316</v>
       </c>
       <c r="K45" t="n">
-        <v>17.39261862637501</v>
+        <v>26.69063902916497</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>5.47506835682708</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.698038997342408</v>
+        <v>12.69342733144538</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.91032407045577</v>
+        <v>41.26044998519077</v>
       </c>
       <c r="R45" t="n">
-        <v>66.92938550216252</v>
+        <v>70.50443987437902</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
-        <v>40.30525941636866</v>
+        <v>45.91378856574659</v>
       </c>
       <c r="L46" t="n">
-        <v>31.94173573434517</v>
+        <v>39.118722096546</v>
       </c>
       <c r="M46" t="n">
-        <v>31.538805043564</v>
+        <v>39.10593087476303</v>
       </c>
       <c r="N46" t="n">
-        <v>25.62990109690304</v>
+        <v>33.01709758919402</v>
       </c>
       <c r="O46" t="n">
-        <v>37.0102385447647</v>
+        <v>43.83351015779508</v>
       </c>
       <c r="P46" t="n">
-        <v>44.18408838467263</v>
+        <v>50.02257600621597</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.08779846355691</v>
+        <v>71.13006466034253</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>313.3856093542684</v>
       </c>
       <c r="I14" t="n">
-        <v>108.8838344298736</v>
+        <v>108.8838344298737</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>83.65205897599289</v>
       </c>
       <c r="I15" t="n">
-        <v>35.48070724912226</v>
+        <v>35.48070724912227</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>121.9417678743324</v>
       </c>
       <c r="J16" t="n">
-        <v>6.983960317295718</v>
+        <v>6.983960317295722</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>313.3856093542684</v>
       </c>
       <c r="I20" t="n">
-        <v>108.8838344298736</v>
+        <v>108.8838344298737</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24068,7 +24068,7 @@
         <v>83.65205897599289</v>
       </c>
       <c r="I21" t="n">
-        <v>35.48070724912226</v>
+        <v>35.48070724912227</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>121.9417678743324</v>
       </c>
       <c r="J22" t="n">
-        <v>6.983960317295718</v>
+        <v>6.983960317295722</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>313.3856093542684</v>
       </c>
       <c r="I23" t="n">
-        <v>108.8838344298736</v>
+        <v>108.8838344298737</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24305,7 +24305,7 @@
         <v>83.65205897599289</v>
       </c>
       <c r="I24" t="n">
-        <v>35.48070724912226</v>
+        <v>35.48070724912227</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>121.9417678743324</v>
       </c>
       <c r="J25" t="n">
-        <v>6.983960317295718</v>
+        <v>6.983960317295722</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>313.3856093542684</v>
       </c>
       <c r="I26" t="n">
-        <v>108.8838344298736</v>
+        <v>108.8838344298737</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24542,7 +24542,7 @@
         <v>83.65205897599289</v>
       </c>
       <c r="I27" t="n">
-        <v>35.48070724912226</v>
+        <v>35.48070724912227</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24624,7 +24624,7 @@
         <v>121.9417678743324</v>
       </c>
       <c r="J28" t="n">
-        <v>6.983960317295718</v>
+        <v>6.983960317295722</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>313.3856093542684</v>
       </c>
       <c r="I29" t="n">
-        <v>108.8838344298736</v>
+        <v>108.8838344298737</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24779,7 +24779,7 @@
         <v>83.65205897599289</v>
       </c>
       <c r="I30" t="n">
-        <v>35.48070724912226</v>
+        <v>35.48070724912227</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24861,7 +24861,7 @@
         <v>121.9417678743324</v>
       </c>
       <c r="J31" t="n">
-        <v>6.983960317295718</v>
+        <v>6.983960317295722</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>313.3856093542684</v>
       </c>
       <c r="I32" t="n">
-        <v>108.8838344298736</v>
+        <v>108.8838344298737</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25016,7 +25016,7 @@
         <v>83.65205897599289</v>
       </c>
       <c r="I33" t="n">
-        <v>35.48070724912226</v>
+        <v>35.48070724912227</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>121.9417678743324</v>
       </c>
       <c r="J34" t="n">
-        <v>6.983960317295718</v>
+        <v>6.983960317295722</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>313.3856093542684</v>
       </c>
       <c r="I35" t="n">
-        <v>108.8838344298736</v>
+        <v>108.8838344298737</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25253,7 +25253,7 @@
         <v>83.65205897599289</v>
       </c>
       <c r="I36" t="n">
-        <v>35.48070724912226</v>
+        <v>35.48070724912227</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>121.9417678743324</v>
       </c>
       <c r="J37" t="n">
-        <v>6.983960317295718</v>
+        <v>6.983960317295722</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>313.3856093542684</v>
       </c>
       <c r="I38" t="n">
-        <v>108.8838344298736</v>
+        <v>108.8838344298737</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>83.65205897599289</v>
       </c>
       <c r="I39" t="n">
-        <v>35.48070724912226</v>
+        <v>35.48070724912227</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>121.9417678743324</v>
       </c>
       <c r="J40" t="n">
-        <v>6.983960317295718</v>
+        <v>6.983960317295722</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>313.3856093542684</v>
       </c>
       <c r="I41" t="n">
-        <v>108.8838344298736</v>
+        <v>108.8838344298737</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>83.65205897599289</v>
       </c>
       <c r="I42" t="n">
-        <v>35.48070724912226</v>
+        <v>35.48070724912227</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>121.9417678743324</v>
       </c>
       <c r="J43" t="n">
-        <v>6.983960317295718</v>
+        <v>6.983960317295722</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>408.195414220098</v>
+        <v>408.3030322092966</v>
       </c>
       <c r="H44" t="n">
-        <v>312.2834666223883</v>
+        <v>313.3856093542684</v>
       </c>
       <c r="I44" t="n">
-        <v>104.7348919012949</v>
+        <v>108.8838344298737</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>145.8045927315129</v>
+        <v>148.2569376603758</v>
       </c>
       <c r="T44" t="n">
-        <v>217.6072595334283</v>
+        <v>218.0783572811451</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1283451708051</v>
+        <v>253.1369546099409</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25958,13 +25958,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4696541797598</v>
       </c>
       <c r="H45" t="n">
-        <v>83.09595063128953</v>
+        <v>83.65205897599289</v>
       </c>
       <c r="I45" t="n">
-        <v>33.49821383135598</v>
+        <v>35.48070724912227</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>125.2758244874271</v>
+        <v>126.3453607452921</v>
       </c>
       <c r="T45" t="n">
-        <v>173.4116604295919</v>
+        <v>173.6437510602833</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9368825743884</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -26037,16 +26037,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.1966409497028</v>
+        <v>166.2449146747757</v>
       </c>
       <c r="H46" t="n">
-        <v>150.5908089937078</v>
+        <v>151.0200062948104</v>
       </c>
       <c r="I46" t="n">
-        <v>120.4900453057766</v>
+        <v>121.9417678743324</v>
       </c>
       <c r="J46" t="n">
-        <v>3.571007954642184</v>
+        <v>6.983960317295722</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>105.8063526647429</v>
+        <v>107.9769148848387</v>
       </c>
       <c r="S46" t="n">
-        <v>194.2549192201042</v>
+        <v>195.0961985925109</v>
       </c>
       <c r="T46" t="n">
-        <v>231.7601337355605</v>
+        <v>231.9663941972356</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5665893666941</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>238941.2436395515</v>
+        <v>240110.7965593388</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>48844.67728252667</v>
       </c>
       <c r="C2" t="n">
-        <v>48844.67728252669</v>
+        <v>48844.67728252667</v>
       </c>
       <c r="D2" t="n">
-        <v>48844.67728252669</v>
+        <v>48844.67728252667</v>
       </c>
       <c r="E2" t="n">
+        <v>52410.71399015421</v>
+      </c>
+      <c r="F2" t="n">
+        <v>52410.71399015421</v>
+      </c>
+      <c r="G2" t="n">
         <v>52410.71399015422</v>
       </c>
-      <c r="F2" t="n">
-        <v>52410.7139901542</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>52410.71399015423</v>
-      </c>
-      <c r="H2" t="n">
-        <v>52410.71399015422</v>
       </c>
       <c r="I2" t="n">
         <v>52410.71399015423</v>
@@ -26340,22 +26340,22 @@
         <v>52410.71399015422</v>
       </c>
       <c r="K2" t="n">
-        <v>52410.7139901542</v>
+        <v>52410.71399015422</v>
       </c>
       <c r="L2" t="n">
-        <v>52410.71399015421</v>
+        <v>52410.71399015422</v>
       </c>
       <c r="M2" t="n">
-        <v>52410.71399015424</v>
+        <v>52410.71399015422</v>
       </c>
       <c r="N2" t="n">
-        <v>52410.71399015423</v>
+        <v>52410.71399015422</v>
       </c>
       <c r="O2" t="n">
-        <v>52410.71399015423</v>
+        <v>52410.71399015422</v>
       </c>
       <c r="P2" t="n">
-        <v>52745.75031853785</v>
+        <v>52410.71399015422</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145507.38408843</v>
+        <v>145507.3840884299</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>17817.45275623694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30058.26294309333</v>
+        <v>30058.26294309334</v>
       </c>
       <c r="C4" t="n">
-        <v>30058.26294309333</v>
+        <v>30058.26294309334</v>
       </c>
       <c r="D4" t="n">
-        <v>30058.26294309333</v>
+        <v>30058.26294309334</v>
       </c>
       <c r="E4" t="n">
         <v>10309.9736794318</v>
@@ -26459,7 +26459,7 @@
         <v>10309.9736794318</v>
       </c>
       <c r="P4" t="n">
-        <v>7671.415319808698</v>
+        <v>10309.9736794318</v>
       </c>
     </row>
     <row r="5">
@@ -26481,37 +26481,37 @@
         <v>3948.2812151906</v>
       </c>
       <c r="F5" t="n">
-        <v>3948.2812151906</v>
+        <v>3948.281215190599</v>
       </c>
       <c r="G5" t="n">
         <v>3948.2812151906</v>
       </c>
       <c r="H5" t="n">
-        <v>3948.2812151906</v>
+        <v>3948.281215190599</v>
       </c>
       <c r="I5" t="n">
-        <v>3948.2812151906</v>
+        <v>3948.281215190599</v>
       </c>
       <c r="J5" t="n">
-        <v>3948.2812151906</v>
+        <v>3948.281215190599</v>
       </c>
       <c r="K5" t="n">
-        <v>3948.2812151906</v>
+        <v>3948.281215190599</v>
       </c>
       <c r="L5" t="n">
-        <v>3948.2812151906</v>
+        <v>3948.281215190599</v>
       </c>
       <c r="M5" t="n">
-        <v>3948.2812151906</v>
+        <v>3948.281215190599</v>
       </c>
       <c r="N5" t="n">
-        <v>3948.2812151906</v>
+        <v>3948.281215190599</v>
       </c>
       <c r="O5" t="n">
-        <v>3948.2812151906</v>
+        <v>3948.281215190599</v>
       </c>
       <c r="P5" t="n">
-        <v>4531.866666117264</v>
+        <v>3948.281215190599</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14841.18566056667</v>
+        <v>-16268.77915471156</v>
       </c>
       <c r="C6" t="n">
-        <v>-14841.18566056664</v>
+        <v>-16268.77915471156</v>
       </c>
       <c r="D6" t="n">
-        <v>-14841.18566056664</v>
+        <v>-16268.77915471156</v>
       </c>
       <c r="E6" t="n">
-        <v>-107354.9249928982</v>
+        <v>-108755.0874354459</v>
       </c>
       <c r="F6" t="n">
-        <v>38152.45909553181</v>
+        <v>36752.29665298405</v>
       </c>
       <c r="G6" t="n">
-        <v>38152.45909553184</v>
+        <v>36752.29665298406</v>
       </c>
       <c r="H6" t="n">
-        <v>38152.45909553183</v>
+        <v>36752.29665298406</v>
       </c>
       <c r="I6" t="n">
-        <v>38152.45909553184</v>
+        <v>36752.29665298406</v>
       </c>
       <c r="J6" t="n">
-        <v>38152.45909553183</v>
+        <v>36752.29665298406</v>
       </c>
       <c r="K6" t="n">
-        <v>38152.45909553181</v>
+        <v>36752.29665298406</v>
       </c>
       <c r="L6" t="n">
-        <v>38152.45909553182</v>
+        <v>36752.29665298406</v>
       </c>
       <c r="M6" t="n">
-        <v>38152.45909553185</v>
+        <v>36752.29665298406</v>
       </c>
       <c r="N6" t="n">
-        <v>38152.45909553184</v>
+        <v>36752.29665298406</v>
       </c>
       <c r="O6" t="n">
-        <v>38152.45909553183</v>
+        <v>36752.29665298406</v>
       </c>
       <c r="P6" t="n">
-        <v>22725.01557637495</v>
+        <v>36752.29665298406</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>181.113817210578</v>
       </c>
       <c r="F3" t="n">
-        <v>181.113817210578</v>
+        <v>181.1138172105779</v>
       </c>
       <c r="G3" t="n">
         <v>181.113817210578</v>
       </c>
       <c r="H3" t="n">
-        <v>181.113817210578</v>
+        <v>181.1138172105779</v>
       </c>
       <c r="I3" t="n">
-        <v>181.113817210578</v>
+        <v>181.1138172105779</v>
       </c>
       <c r="J3" t="n">
-        <v>181.113817210578</v>
+        <v>181.1138172105779</v>
       </c>
       <c r="K3" t="n">
-        <v>181.113817210578</v>
+        <v>181.1138172105779</v>
       </c>
       <c r="L3" t="n">
-        <v>181.113817210578</v>
+        <v>181.1138172105779</v>
       </c>
       <c r="M3" t="n">
-        <v>181.113817210578</v>
+        <v>181.1138172105779</v>
       </c>
       <c r="N3" t="n">
-        <v>181.113817210578</v>
+        <v>181.1138172105779</v>
       </c>
       <c r="O3" t="n">
-        <v>181.113817210578</v>
+        <v>181.1138172105779</v>
       </c>
       <c r="P3" t="n">
-        <v>207.8837920237277</v>
+        <v>181.1138172105779</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>181.113817210578</v>
+        <v>181.1138172105779</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>26.76997481314973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31761,10 +31761,10 @@
         <v>28.06991130858616</v>
       </c>
       <c r="J11" t="n">
-        <v>61.79621645618611</v>
+        <v>61.79621645618609</v>
       </c>
       <c r="K11" t="n">
-        <v>92.61650945125652</v>
+        <v>92.6165094512565</v>
       </c>
       <c r="L11" t="n">
         <v>114.8989696862645</v>
@@ -31773,7 +31773,7 @@
         <v>127.8472424372941</v>
       </c>
       <c r="N11" t="n">
-        <v>129.9159444801064</v>
+        <v>129.9159444801063</v>
       </c>
       <c r="O11" t="n">
         <v>122.6759423901056</v>
@@ -31794,7 +31794,7 @@
         <v>3.187239135032381</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05824765980641698</v>
+        <v>0.05824765980641697</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31867,7 +31867,7 @@
         <v>24.18723770219757</v>
       </c>
       <c r="S12" t="n">
-        <v>7.236009583837709</v>
+        <v>7.236009583837708</v>
       </c>
       <c r="T12" t="n">
         <v>1.570222622797369</v>
@@ -31913,10 +31913,10 @@
         <v>0.3265986867731733</v>
       </c>
       <c r="H13" t="n">
-        <v>2.90375923331058</v>
+        <v>2.903759233310579</v>
       </c>
       <c r="I13" t="n">
-        <v>9.821713234960525</v>
+        <v>9.821713234960523</v>
       </c>
       <c r="J13" t="n">
         <v>23.09052715486335</v>
@@ -31934,7 +31934,7 @@
         <v>49.97850631320755</v>
       </c>
       <c r="O13" t="n">
-        <v>46.16323983590274</v>
+        <v>46.16323983590273</v>
       </c>
       <c r="P13" t="n">
         <v>39.50062662572996</v>
@@ -31943,10 +31943,10 @@
         <v>27.34818639879727</v>
       </c>
       <c r="R13" t="n">
-        <v>14.68506458891014</v>
+        <v>14.68506458891013</v>
       </c>
       <c r="S13" t="n">
-        <v>5.69172438676521</v>
+        <v>5.691724386765209</v>
       </c>
       <c r="T13" t="n">
         <v>1.395467116212649</v>
@@ -31989,28 +31989,28 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7280957475802123</v>
+        <v>0.7280957475802122</v>
       </c>
       <c r="H14" t="n">
-        <v>7.456610574905852</v>
+        <v>7.45661057490585</v>
       </c>
       <c r="I14" t="n">
         <v>28.06991130858616</v>
       </c>
       <c r="J14" t="n">
-        <v>61.79621645618611</v>
+        <v>61.79621645618609</v>
       </c>
       <c r="K14" t="n">
-        <v>92.61650945125652</v>
+        <v>92.6165094512565</v>
       </c>
       <c r="L14" t="n">
-        <v>114.8989696862645</v>
+        <v>114.8989696862644</v>
       </c>
       <c r="M14" t="n">
-        <v>127.8472424372941</v>
+        <v>127.847242437294</v>
       </c>
       <c r="N14" t="n">
-        <v>129.9159444801064</v>
+        <v>129.9159444801063</v>
       </c>
       <c r="O14" t="n">
         <v>122.6759423901056</v>
@@ -32019,19 +32019,19 @@
         <v>104.7010786217191</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.62614966150271</v>
+        <v>78.62614966150269</v>
       </c>
       <c r="R14" t="n">
-        <v>45.73624450393555</v>
+        <v>45.73624450393554</v>
       </c>
       <c r="S14" t="n">
-        <v>16.59148184798411</v>
+        <v>16.5914818479841</v>
       </c>
       <c r="T14" t="n">
         <v>3.187239135032381</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05824765980641698</v>
+        <v>0.05824765980641697</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,19 +32071,19 @@
         <v>0.3895655690944507</v>
       </c>
       <c r="H15" t="n">
-        <v>3.762383259412196</v>
+        <v>3.762383259412195</v>
       </c>
       <c r="I15" t="n">
-        <v>13.41267419908526</v>
+        <v>13.41267419908525</v>
       </c>
       <c r="J15" t="n">
         <v>36.80540317484019</v>
       </c>
       <c r="K15" t="n">
-        <v>62.90629630416839</v>
+        <v>62.90629630416838</v>
       </c>
       <c r="L15" t="n">
-        <v>84.58527850009116</v>
+        <v>84.58527850009115</v>
       </c>
       <c r="M15" t="n">
         <v>92.38712204931191</v>
@@ -32095,7 +32095,7 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>74.38993748786929</v>
+        <v>74.38993748786928</v>
       </c>
       <c r="Q15" t="n">
         <v>49.72770317072322</v>
@@ -32104,7 +32104,7 @@
         <v>24.18723770219757</v>
       </c>
       <c r="S15" t="n">
-        <v>7.236009583837709</v>
+        <v>7.236009583837708</v>
       </c>
       <c r="T15" t="n">
         <v>1.570222622797369</v>
@@ -32150,10 +32150,10 @@
         <v>0.3265986867731733</v>
       </c>
       <c r="H16" t="n">
-        <v>2.90375923331058</v>
+        <v>2.903759233310579</v>
       </c>
       <c r="I16" t="n">
-        <v>9.821713234960525</v>
+        <v>9.821713234960523</v>
       </c>
       <c r="J16" t="n">
         <v>23.09052715486335</v>
@@ -32162,16 +32162,16 @@
         <v>37.9448292451014</v>
       </c>
       <c r="L16" t="n">
-        <v>48.55631748625889</v>
+        <v>48.55631748625888</v>
       </c>
       <c r="M16" t="n">
-        <v>51.19582869118025</v>
+        <v>51.19582869118024</v>
       </c>
       <c r="N16" t="n">
         <v>49.97850631320755</v>
       </c>
       <c r="O16" t="n">
-        <v>46.16323983590274</v>
+        <v>46.16323983590273</v>
       </c>
       <c r="P16" t="n">
         <v>39.50062662572996</v>
@@ -32180,10 +32180,10 @@
         <v>27.34818639879727</v>
       </c>
       <c r="R16" t="n">
-        <v>14.68506458891014</v>
+        <v>14.68506458891013</v>
       </c>
       <c r="S16" t="n">
-        <v>5.69172438676521</v>
+        <v>5.691724386765209</v>
       </c>
       <c r="T16" t="n">
         <v>1.395467116212649</v>
@@ -32235,10 +32235,10 @@
         <v>28.06991130858616</v>
       </c>
       <c r="J17" t="n">
-        <v>61.79621645618611</v>
+        <v>61.79621645618609</v>
       </c>
       <c r="K17" t="n">
-        <v>92.61650945125652</v>
+        <v>92.6165094512565</v>
       </c>
       <c r="L17" t="n">
         <v>114.8989696862645</v>
@@ -32247,7 +32247,7 @@
         <v>127.8472424372941</v>
       </c>
       <c r="N17" t="n">
-        <v>129.9159444801064</v>
+        <v>129.9159444801063</v>
       </c>
       <c r="O17" t="n">
         <v>122.6759423901056</v>
@@ -32268,7 +32268,7 @@
         <v>3.187239135032381</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05824765980641698</v>
+        <v>0.05824765980641697</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32341,7 +32341,7 @@
         <v>24.18723770219757</v>
       </c>
       <c r="S18" t="n">
-        <v>7.236009583837709</v>
+        <v>7.236009583837708</v>
       </c>
       <c r="T18" t="n">
         <v>1.570222622797369</v>
@@ -32387,10 +32387,10 @@
         <v>0.3265986867731733</v>
       </c>
       <c r="H19" t="n">
-        <v>2.90375923331058</v>
+        <v>2.903759233310579</v>
       </c>
       <c r="I19" t="n">
-        <v>9.821713234960525</v>
+        <v>9.821713234960523</v>
       </c>
       <c r="J19" t="n">
         <v>23.09052715486335</v>
@@ -32408,7 +32408,7 @@
         <v>49.97850631320755</v>
       </c>
       <c r="O19" t="n">
-        <v>46.16323983590274</v>
+        <v>46.16323983590273</v>
       </c>
       <c r="P19" t="n">
         <v>39.50062662572996</v>
@@ -32417,10 +32417,10 @@
         <v>27.34818639879727</v>
       </c>
       <c r="R19" t="n">
-        <v>14.68506458891014</v>
+        <v>14.68506458891013</v>
       </c>
       <c r="S19" t="n">
-        <v>5.69172438676521</v>
+        <v>5.691724386765209</v>
       </c>
       <c r="T19" t="n">
         <v>1.395467116212649</v>
@@ -32463,28 +32463,28 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7280957475802123</v>
+        <v>0.7280957475802122</v>
       </c>
       <c r="H20" t="n">
-        <v>7.456610574905852</v>
+        <v>7.45661057490585</v>
       </c>
       <c r="I20" t="n">
         <v>28.06991130858616</v>
       </c>
       <c r="J20" t="n">
-        <v>61.79621645618611</v>
+        <v>61.79621645618609</v>
       </c>
       <c r="K20" t="n">
-        <v>92.61650945125652</v>
+        <v>92.6165094512565</v>
       </c>
       <c r="L20" t="n">
-        <v>114.8989696862645</v>
+        <v>114.8989696862644</v>
       </c>
       <c r="M20" t="n">
-        <v>127.8472424372941</v>
+        <v>127.847242437294</v>
       </c>
       <c r="N20" t="n">
-        <v>129.9159444801064</v>
+        <v>129.9159444801063</v>
       </c>
       <c r="O20" t="n">
         <v>122.6759423901056</v>
@@ -32493,19 +32493,19 @@
         <v>104.7010786217191</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.62614966150271</v>
+        <v>78.62614966150269</v>
       </c>
       <c r="R20" t="n">
-        <v>45.73624450393555</v>
+        <v>45.73624450393554</v>
       </c>
       <c r="S20" t="n">
-        <v>16.59148184798411</v>
+        <v>16.5914818479841</v>
       </c>
       <c r="T20" t="n">
         <v>3.187239135032381</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05824765980641698</v>
+        <v>0.05824765980641697</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,19 +32545,19 @@
         <v>0.3895655690944507</v>
       </c>
       <c r="H21" t="n">
-        <v>3.762383259412196</v>
+        <v>3.762383259412195</v>
       </c>
       <c r="I21" t="n">
-        <v>13.41267419908526</v>
+        <v>13.41267419908525</v>
       </c>
       <c r="J21" t="n">
         <v>36.80540317484019</v>
       </c>
       <c r="K21" t="n">
-        <v>62.90629630416839</v>
+        <v>62.90629630416838</v>
       </c>
       <c r="L21" t="n">
-        <v>84.58527850009116</v>
+        <v>84.58527850009115</v>
       </c>
       <c r="M21" t="n">
         <v>92.38712204931191</v>
@@ -32569,7 +32569,7 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>74.38993748786929</v>
+        <v>74.38993748786928</v>
       </c>
       <c r="Q21" t="n">
         <v>49.72770317072322</v>
@@ -32578,7 +32578,7 @@
         <v>24.18723770219757</v>
       </c>
       <c r="S21" t="n">
-        <v>7.236009583837709</v>
+        <v>7.236009583837708</v>
       </c>
       <c r="T21" t="n">
         <v>1.570222622797369</v>
@@ -32624,10 +32624,10 @@
         <v>0.3265986867731733</v>
       </c>
       <c r="H22" t="n">
-        <v>2.90375923331058</v>
+        <v>2.903759233310579</v>
       </c>
       <c r="I22" t="n">
-        <v>9.821713234960525</v>
+        <v>9.821713234960523</v>
       </c>
       <c r="J22" t="n">
         <v>23.09052715486335</v>
@@ -32636,16 +32636,16 @@
         <v>37.9448292451014</v>
       </c>
       <c r="L22" t="n">
-        <v>48.55631748625889</v>
+        <v>48.55631748625888</v>
       </c>
       <c r="M22" t="n">
-        <v>51.19582869118025</v>
+        <v>51.19582869118024</v>
       </c>
       <c r="N22" t="n">
         <v>49.97850631320755</v>
       </c>
       <c r="O22" t="n">
-        <v>46.16323983590274</v>
+        <v>46.16323983590273</v>
       </c>
       <c r="P22" t="n">
         <v>39.50062662572996</v>
@@ -32654,10 +32654,10 @@
         <v>27.34818639879727</v>
       </c>
       <c r="R22" t="n">
-        <v>14.68506458891014</v>
+        <v>14.68506458891013</v>
       </c>
       <c r="S22" t="n">
-        <v>5.69172438676521</v>
+        <v>5.691724386765209</v>
       </c>
       <c r="T22" t="n">
         <v>1.395467116212649</v>
@@ -32700,28 +32700,28 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7280957475802123</v>
+        <v>0.7280957475802122</v>
       </c>
       <c r="H23" t="n">
-        <v>7.456610574905852</v>
+        <v>7.45661057490585</v>
       </c>
       <c r="I23" t="n">
         <v>28.06991130858616</v>
       </c>
       <c r="J23" t="n">
-        <v>61.79621645618611</v>
+        <v>61.79621645618609</v>
       </c>
       <c r="K23" t="n">
-        <v>92.61650945125652</v>
+        <v>92.6165094512565</v>
       </c>
       <c r="L23" t="n">
-        <v>114.8989696862645</v>
+        <v>114.8989696862644</v>
       </c>
       <c r="M23" t="n">
-        <v>127.8472424372941</v>
+        <v>127.847242437294</v>
       </c>
       <c r="N23" t="n">
-        <v>129.9159444801064</v>
+        <v>129.9159444801063</v>
       </c>
       <c r="O23" t="n">
         <v>122.6759423901056</v>
@@ -32730,19 +32730,19 @@
         <v>104.7010786217191</v>
       </c>
       <c r="Q23" t="n">
-        <v>78.62614966150271</v>
+        <v>78.62614966150269</v>
       </c>
       <c r="R23" t="n">
-        <v>45.73624450393555</v>
+        <v>45.73624450393554</v>
       </c>
       <c r="S23" t="n">
-        <v>16.59148184798411</v>
+        <v>16.5914818479841</v>
       </c>
       <c r="T23" t="n">
         <v>3.187239135032381</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05824765980641698</v>
+        <v>0.05824765980641697</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,19 +32782,19 @@
         <v>0.3895655690944507</v>
       </c>
       <c r="H24" t="n">
-        <v>3.762383259412196</v>
+        <v>3.762383259412195</v>
       </c>
       <c r="I24" t="n">
-        <v>13.41267419908526</v>
+        <v>13.41267419908525</v>
       </c>
       <c r="J24" t="n">
         <v>36.80540317484019</v>
       </c>
       <c r="K24" t="n">
-        <v>62.90629630416839</v>
+        <v>62.90629630416838</v>
       </c>
       <c r="L24" t="n">
-        <v>84.58527850009116</v>
+        <v>84.58527850009115</v>
       </c>
       <c r="M24" t="n">
         <v>92.38712204931191</v>
@@ -32803,10 +32803,10 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>92.68755888888887</v>
       </c>
       <c r="P24" t="n">
-        <v>74.38993748786929</v>
+        <v>74.38993748786928</v>
       </c>
       <c r="Q24" t="n">
         <v>49.72770317072322</v>
@@ -32815,7 +32815,7 @@
         <v>24.18723770219757</v>
       </c>
       <c r="S24" t="n">
-        <v>7.236009583837709</v>
+        <v>7.236009583837708</v>
       </c>
       <c r="T24" t="n">
         <v>1.570222622797369</v>
@@ -32861,10 +32861,10 @@
         <v>0.3265986867731733</v>
       </c>
       <c r="H25" t="n">
-        <v>2.90375923331058</v>
+        <v>2.903759233310579</v>
       </c>
       <c r="I25" t="n">
-        <v>9.821713234960525</v>
+        <v>9.821713234960523</v>
       </c>
       <c r="J25" t="n">
         <v>23.09052715486335</v>
@@ -32873,16 +32873,16 @@
         <v>37.9448292451014</v>
       </c>
       <c r="L25" t="n">
-        <v>48.55631748625889</v>
+        <v>48.55631748625888</v>
       </c>
       <c r="M25" t="n">
-        <v>51.19582869118025</v>
+        <v>51.19582869118024</v>
       </c>
       <c r="N25" t="n">
         <v>49.97850631320755</v>
       </c>
       <c r="O25" t="n">
-        <v>46.16323983590274</v>
+        <v>46.16323983590273</v>
       </c>
       <c r="P25" t="n">
         <v>39.50062662572996</v>
@@ -32891,10 +32891,10 @@
         <v>27.34818639879727</v>
       </c>
       <c r="R25" t="n">
-        <v>14.68506458891014</v>
+        <v>14.68506458891013</v>
       </c>
       <c r="S25" t="n">
-        <v>5.69172438676521</v>
+        <v>5.691724386765209</v>
       </c>
       <c r="T25" t="n">
         <v>1.395467116212649</v>
@@ -32937,28 +32937,28 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7280957475802123</v>
+        <v>0.7280957475802122</v>
       </c>
       <c r="H26" t="n">
-        <v>7.456610574905852</v>
+        <v>7.45661057490585</v>
       </c>
       <c r="I26" t="n">
         <v>28.06991130858616</v>
       </c>
       <c r="J26" t="n">
-        <v>61.79621645618611</v>
+        <v>61.79621645618609</v>
       </c>
       <c r="K26" t="n">
-        <v>92.61650945125652</v>
+        <v>92.6165094512565</v>
       </c>
       <c r="L26" t="n">
-        <v>114.8989696862645</v>
+        <v>114.8989696862644</v>
       </c>
       <c r="M26" t="n">
-        <v>127.8472424372941</v>
+        <v>127.847242437294</v>
       </c>
       <c r="N26" t="n">
-        <v>129.9159444801064</v>
+        <v>129.9159444801063</v>
       </c>
       <c r="O26" t="n">
         <v>122.6759423901056</v>
@@ -32967,19 +32967,19 @@
         <v>104.7010786217191</v>
       </c>
       <c r="Q26" t="n">
-        <v>78.62614966150271</v>
+        <v>78.62614966150269</v>
       </c>
       <c r="R26" t="n">
-        <v>45.73624450393555</v>
+        <v>45.73624450393554</v>
       </c>
       <c r="S26" t="n">
-        <v>16.59148184798411</v>
+        <v>16.5914818479841</v>
       </c>
       <c r="T26" t="n">
         <v>3.187239135032381</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05824765980641698</v>
+        <v>0.05824765980641697</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,19 +33019,19 @@
         <v>0.3895655690944507</v>
       </c>
       <c r="H27" t="n">
-        <v>3.762383259412196</v>
+        <v>3.762383259412195</v>
       </c>
       <c r="I27" t="n">
-        <v>13.41267419908526</v>
+        <v>13.41267419908525</v>
       </c>
       <c r="J27" t="n">
         <v>36.80540317484019</v>
       </c>
       <c r="K27" t="n">
-        <v>62.90629630416839</v>
+        <v>62.90629630416838</v>
       </c>
       <c r="L27" t="n">
-        <v>84.58527850009116</v>
+        <v>84.58527850009115</v>
       </c>
       <c r="M27" t="n">
         <v>92.38712204931191</v>
@@ -33043,7 +33043,7 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>74.38993748786929</v>
+        <v>74.38993748786928</v>
       </c>
       <c r="Q27" t="n">
         <v>49.72770317072322</v>
@@ -33052,7 +33052,7 @@
         <v>24.18723770219757</v>
       </c>
       <c r="S27" t="n">
-        <v>7.236009583837709</v>
+        <v>7.236009583837708</v>
       </c>
       <c r="T27" t="n">
         <v>1.570222622797369</v>
@@ -33098,10 +33098,10 @@
         <v>0.3265986867731733</v>
       </c>
       <c r="H28" t="n">
-        <v>2.90375923331058</v>
+        <v>2.903759233310579</v>
       </c>
       <c r="I28" t="n">
-        <v>9.821713234960525</v>
+        <v>9.821713234960523</v>
       </c>
       <c r="J28" t="n">
         <v>23.09052715486335</v>
@@ -33110,16 +33110,16 @@
         <v>37.9448292451014</v>
       </c>
       <c r="L28" t="n">
-        <v>48.55631748625889</v>
+        <v>48.55631748625888</v>
       </c>
       <c r="M28" t="n">
-        <v>51.19582869118025</v>
+        <v>51.19582869118024</v>
       </c>
       <c r="N28" t="n">
         <v>49.97850631320755</v>
       </c>
       <c r="O28" t="n">
-        <v>46.16323983590274</v>
+        <v>46.16323983590273</v>
       </c>
       <c r="P28" t="n">
         <v>39.50062662572996</v>
@@ -33128,10 +33128,10 @@
         <v>27.34818639879727</v>
       </c>
       <c r="R28" t="n">
-        <v>14.68506458891014</v>
+        <v>14.68506458891013</v>
       </c>
       <c r="S28" t="n">
-        <v>5.69172438676521</v>
+        <v>5.691724386765209</v>
       </c>
       <c r="T28" t="n">
         <v>1.395467116212649</v>
@@ -33174,28 +33174,28 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7280957475802123</v>
+        <v>0.7280957475802122</v>
       </c>
       <c r="H29" t="n">
-        <v>7.456610574905852</v>
+        <v>7.45661057490585</v>
       </c>
       <c r="I29" t="n">
         <v>28.06991130858616</v>
       </c>
       <c r="J29" t="n">
-        <v>61.79621645618611</v>
+        <v>61.79621645618609</v>
       </c>
       <c r="K29" t="n">
-        <v>92.61650945125652</v>
+        <v>92.6165094512565</v>
       </c>
       <c r="L29" t="n">
-        <v>114.8989696862645</v>
+        <v>114.8989696862644</v>
       </c>
       <c r="M29" t="n">
-        <v>127.8472424372941</v>
+        <v>127.847242437294</v>
       </c>
       <c r="N29" t="n">
-        <v>129.9159444801064</v>
+        <v>129.9159444801063</v>
       </c>
       <c r="O29" t="n">
         <v>122.6759423901056</v>
@@ -33204,19 +33204,19 @@
         <v>104.7010786217191</v>
       </c>
       <c r="Q29" t="n">
-        <v>78.62614966150271</v>
+        <v>78.62614966150269</v>
       </c>
       <c r="R29" t="n">
-        <v>45.73624450393555</v>
+        <v>45.73624450393554</v>
       </c>
       <c r="S29" t="n">
-        <v>16.59148184798411</v>
+        <v>16.5914818479841</v>
       </c>
       <c r="T29" t="n">
         <v>3.187239135032381</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05824765980641698</v>
+        <v>0.05824765980641697</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,19 +33256,19 @@
         <v>0.3895655690944507</v>
       </c>
       <c r="H30" t="n">
-        <v>3.762383259412196</v>
+        <v>3.762383259412195</v>
       </c>
       <c r="I30" t="n">
-        <v>13.41267419908526</v>
+        <v>13.41267419908525</v>
       </c>
       <c r="J30" t="n">
         <v>36.80540317484019</v>
       </c>
       <c r="K30" t="n">
-        <v>62.90629630416839</v>
+        <v>62.90629630416838</v>
       </c>
       <c r="L30" t="n">
-        <v>84.58527850009116</v>
+        <v>84.58527850009115</v>
       </c>
       <c r="M30" t="n">
         <v>92.38712204931191</v>
@@ -33280,7 +33280,7 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>74.38993748786929</v>
+        <v>74.38993748786928</v>
       </c>
       <c r="Q30" t="n">
         <v>49.72770317072322</v>
@@ -33289,7 +33289,7 @@
         <v>24.18723770219757</v>
       </c>
       <c r="S30" t="n">
-        <v>7.236009583837709</v>
+        <v>7.236009583837708</v>
       </c>
       <c r="T30" t="n">
         <v>1.570222622797369</v>
@@ -33335,10 +33335,10 @@
         <v>0.3265986867731733</v>
       </c>
       <c r="H31" t="n">
-        <v>2.90375923331058</v>
+        <v>2.903759233310579</v>
       </c>
       <c r="I31" t="n">
-        <v>9.821713234960525</v>
+        <v>9.821713234960523</v>
       </c>
       <c r="J31" t="n">
         <v>23.09052715486335</v>
@@ -33347,16 +33347,16 @@
         <v>37.9448292451014</v>
       </c>
       <c r="L31" t="n">
-        <v>48.55631748625889</v>
+        <v>48.55631748625888</v>
       </c>
       <c r="M31" t="n">
-        <v>51.19582869118025</v>
+        <v>51.19582869118024</v>
       </c>
       <c r="N31" t="n">
         <v>49.97850631320755</v>
       </c>
       <c r="O31" t="n">
-        <v>46.16323983590274</v>
+        <v>46.16323983590273</v>
       </c>
       <c r="P31" t="n">
         <v>39.50062662572996</v>
@@ -33365,10 +33365,10 @@
         <v>27.34818639879727</v>
       </c>
       <c r="R31" t="n">
-        <v>14.68506458891014</v>
+        <v>14.68506458891013</v>
       </c>
       <c r="S31" t="n">
-        <v>5.69172438676521</v>
+        <v>5.691724386765209</v>
       </c>
       <c r="T31" t="n">
         <v>1.395467116212649</v>
@@ -33411,28 +33411,28 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7280957475802123</v>
+        <v>0.7280957475802122</v>
       </c>
       <c r="H32" t="n">
-        <v>7.456610574905852</v>
+        <v>7.45661057490585</v>
       </c>
       <c r="I32" t="n">
         <v>28.06991130858616</v>
       </c>
       <c r="J32" t="n">
-        <v>61.79621645618611</v>
+        <v>61.79621645618609</v>
       </c>
       <c r="K32" t="n">
-        <v>92.61650945125652</v>
+        <v>92.6165094512565</v>
       </c>
       <c r="L32" t="n">
-        <v>114.8989696862645</v>
+        <v>114.8989696862644</v>
       </c>
       <c r="M32" t="n">
-        <v>127.8472424372941</v>
+        <v>127.847242437294</v>
       </c>
       <c r="N32" t="n">
-        <v>129.9159444801064</v>
+        <v>129.9159444801063</v>
       </c>
       <c r="O32" t="n">
         <v>122.6759423901056</v>
@@ -33441,19 +33441,19 @@
         <v>104.7010786217191</v>
       </c>
       <c r="Q32" t="n">
-        <v>78.62614966150271</v>
+        <v>78.62614966150269</v>
       </c>
       <c r="R32" t="n">
-        <v>45.73624450393555</v>
+        <v>45.73624450393554</v>
       </c>
       <c r="S32" t="n">
-        <v>16.59148184798411</v>
+        <v>16.5914818479841</v>
       </c>
       <c r="T32" t="n">
         <v>3.187239135032381</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05824765980641698</v>
+        <v>0.05824765980641697</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,19 +33493,19 @@
         <v>0.3895655690944507</v>
       </c>
       <c r="H33" t="n">
-        <v>3.762383259412196</v>
+        <v>3.762383259412195</v>
       </c>
       <c r="I33" t="n">
-        <v>13.41267419908526</v>
+        <v>13.41267419908525</v>
       </c>
       <c r="J33" t="n">
         <v>36.80540317484019</v>
       </c>
       <c r="K33" t="n">
-        <v>62.90629630416839</v>
+        <v>62.90629630416838</v>
       </c>
       <c r="L33" t="n">
-        <v>84.58527850009116</v>
+        <v>84.58527850009115</v>
       </c>
       <c r="M33" t="n">
         <v>92.38712204931191</v>
@@ -33517,7 +33517,7 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>74.38993748786929</v>
+        <v>74.38993748786928</v>
       </c>
       <c r="Q33" t="n">
         <v>49.72770317072322</v>
@@ -33526,7 +33526,7 @@
         <v>24.18723770219757</v>
       </c>
       <c r="S33" t="n">
-        <v>7.236009583837709</v>
+        <v>7.236009583837708</v>
       </c>
       <c r="T33" t="n">
         <v>1.570222622797369</v>
@@ -33572,10 +33572,10 @@
         <v>0.3265986867731733</v>
       </c>
       <c r="H34" t="n">
-        <v>2.90375923331058</v>
+        <v>2.903759233310579</v>
       </c>
       <c r="I34" t="n">
-        <v>9.821713234960525</v>
+        <v>9.821713234960523</v>
       </c>
       <c r="J34" t="n">
         <v>23.09052715486335</v>
@@ -33584,16 +33584,16 @@
         <v>37.9448292451014</v>
       </c>
       <c r="L34" t="n">
-        <v>48.55631748625889</v>
+        <v>48.55631748625888</v>
       </c>
       <c r="M34" t="n">
-        <v>51.19582869118025</v>
+        <v>51.19582869118024</v>
       </c>
       <c r="N34" t="n">
         <v>49.97850631320755</v>
       </c>
       <c r="O34" t="n">
-        <v>46.16323983590274</v>
+        <v>46.16323983590273</v>
       </c>
       <c r="P34" t="n">
         <v>39.50062662572996</v>
@@ -33602,10 +33602,10 @@
         <v>27.34818639879727</v>
       </c>
       <c r="R34" t="n">
-        <v>14.68506458891014</v>
+        <v>14.68506458891013</v>
       </c>
       <c r="S34" t="n">
-        <v>5.69172438676521</v>
+        <v>5.691724386765209</v>
       </c>
       <c r="T34" t="n">
         <v>1.395467116212649</v>
@@ -33648,28 +33648,28 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7280957475802123</v>
+        <v>0.7280957475802122</v>
       </c>
       <c r="H35" t="n">
-        <v>7.456610574905852</v>
+        <v>7.45661057490585</v>
       </c>
       <c r="I35" t="n">
         <v>28.06991130858616</v>
       </c>
       <c r="J35" t="n">
-        <v>61.79621645618611</v>
+        <v>61.79621645618609</v>
       </c>
       <c r="K35" t="n">
-        <v>92.61650945125652</v>
+        <v>92.6165094512565</v>
       </c>
       <c r="L35" t="n">
-        <v>114.8989696862645</v>
+        <v>114.8989696862644</v>
       </c>
       <c r="M35" t="n">
-        <v>127.8472424372941</v>
+        <v>127.847242437294</v>
       </c>
       <c r="N35" t="n">
-        <v>129.9159444801064</v>
+        <v>129.9159444801063</v>
       </c>
       <c r="O35" t="n">
         <v>122.6759423901056</v>
@@ -33678,19 +33678,19 @@
         <v>104.7010786217191</v>
       </c>
       <c r="Q35" t="n">
-        <v>78.62614966150271</v>
+        <v>78.62614966150269</v>
       </c>
       <c r="R35" t="n">
-        <v>45.73624450393555</v>
+        <v>45.73624450393554</v>
       </c>
       <c r="S35" t="n">
-        <v>16.59148184798411</v>
+        <v>16.5914818479841</v>
       </c>
       <c r="T35" t="n">
         <v>3.187239135032381</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05824765980641698</v>
+        <v>0.05824765980641697</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,19 +33730,19 @@
         <v>0.3895655690944507</v>
       </c>
       <c r="H36" t="n">
-        <v>3.762383259412196</v>
+        <v>3.762383259412195</v>
       </c>
       <c r="I36" t="n">
-        <v>13.41267419908526</v>
+        <v>13.41267419908525</v>
       </c>
       <c r="J36" t="n">
         <v>36.80540317484019</v>
       </c>
       <c r="K36" t="n">
-        <v>62.90629630416839</v>
+        <v>62.90629630416838</v>
       </c>
       <c r="L36" t="n">
-        <v>84.58527850009116</v>
+        <v>84.58527850009115</v>
       </c>
       <c r="M36" t="n">
         <v>92.38712204931191</v>
@@ -33754,7 +33754,7 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
-        <v>74.38993748786929</v>
+        <v>74.38993748786928</v>
       </c>
       <c r="Q36" t="n">
         <v>49.72770317072322</v>
@@ -33763,7 +33763,7 @@
         <v>24.18723770219757</v>
       </c>
       <c r="S36" t="n">
-        <v>7.236009583837709</v>
+        <v>7.236009583837708</v>
       </c>
       <c r="T36" t="n">
         <v>1.570222622797369</v>
@@ -33809,10 +33809,10 @@
         <v>0.3265986867731733</v>
       </c>
       <c r="H37" t="n">
-        <v>2.90375923331058</v>
+        <v>2.903759233310579</v>
       </c>
       <c r="I37" t="n">
-        <v>9.821713234960525</v>
+        <v>9.821713234960523</v>
       </c>
       <c r="J37" t="n">
         <v>23.09052715486335</v>
@@ -33821,16 +33821,16 @@
         <v>37.9448292451014</v>
       </c>
       <c r="L37" t="n">
-        <v>48.55631748625889</v>
+        <v>48.55631748625888</v>
       </c>
       <c r="M37" t="n">
-        <v>51.19582869118025</v>
+        <v>51.19582869118024</v>
       </c>
       <c r="N37" t="n">
         <v>49.97850631320755</v>
       </c>
       <c r="O37" t="n">
-        <v>46.16323983590274</v>
+        <v>46.16323983590273</v>
       </c>
       <c r="P37" t="n">
         <v>39.50062662572996</v>
@@ -33839,10 +33839,10 @@
         <v>27.34818639879727</v>
       </c>
       <c r="R37" t="n">
-        <v>14.68506458891014</v>
+        <v>14.68506458891013</v>
       </c>
       <c r="S37" t="n">
-        <v>5.69172438676521</v>
+        <v>5.691724386765209</v>
       </c>
       <c r="T37" t="n">
         <v>1.395467116212649</v>
@@ -33885,28 +33885,28 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7280957475802123</v>
+        <v>0.7280957475802122</v>
       </c>
       <c r="H38" t="n">
-        <v>7.456610574905852</v>
+        <v>7.45661057490585</v>
       </c>
       <c r="I38" t="n">
         <v>28.06991130858616</v>
       </c>
       <c r="J38" t="n">
-        <v>61.79621645618611</v>
+        <v>61.79621645618609</v>
       </c>
       <c r="K38" t="n">
-        <v>92.61650945125652</v>
+        <v>92.6165094512565</v>
       </c>
       <c r="L38" t="n">
-        <v>114.8989696862645</v>
+        <v>114.8989696862644</v>
       </c>
       <c r="M38" t="n">
-        <v>127.8472424372941</v>
+        <v>127.847242437294</v>
       </c>
       <c r="N38" t="n">
-        <v>129.9159444801064</v>
+        <v>129.9159444801063</v>
       </c>
       <c r="O38" t="n">
         <v>122.6759423901056</v>
@@ -33915,19 +33915,19 @@
         <v>104.7010786217191</v>
       </c>
       <c r="Q38" t="n">
-        <v>78.62614966150271</v>
+        <v>78.62614966150269</v>
       </c>
       <c r="R38" t="n">
-        <v>45.73624450393555</v>
+        <v>45.73624450393554</v>
       </c>
       <c r="S38" t="n">
-        <v>16.59148184798411</v>
+        <v>16.5914818479841</v>
       </c>
       <c r="T38" t="n">
         <v>3.187239135032381</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05824765980641698</v>
+        <v>0.05824765980641697</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,19 +33967,19 @@
         <v>0.3895655690944507</v>
       </c>
       <c r="H39" t="n">
-        <v>3.762383259412196</v>
+        <v>3.762383259412195</v>
       </c>
       <c r="I39" t="n">
-        <v>13.41267419908526</v>
+        <v>13.41267419908525</v>
       </c>
       <c r="J39" t="n">
         <v>36.80540317484019</v>
       </c>
       <c r="K39" t="n">
-        <v>62.90629630416839</v>
+        <v>62.90629630416838</v>
       </c>
       <c r="L39" t="n">
-        <v>84.58527850009116</v>
+        <v>84.58527850009115</v>
       </c>
       <c r="M39" t="n">
         <v>92.38712204931191</v>
@@ -33991,7 +33991,7 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>74.38993748786929</v>
+        <v>74.38993748786928</v>
       </c>
       <c r="Q39" t="n">
         <v>49.72770317072322</v>
@@ -34000,7 +34000,7 @@
         <v>24.18723770219757</v>
       </c>
       <c r="S39" t="n">
-        <v>7.236009583837709</v>
+        <v>7.236009583837708</v>
       </c>
       <c r="T39" t="n">
         <v>1.570222622797369</v>
@@ -34046,10 +34046,10 @@
         <v>0.3265986867731733</v>
       </c>
       <c r="H40" t="n">
-        <v>2.90375923331058</v>
+        <v>2.903759233310579</v>
       </c>
       <c r="I40" t="n">
-        <v>9.821713234960525</v>
+        <v>9.821713234960523</v>
       </c>
       <c r="J40" t="n">
         <v>23.09052715486335</v>
@@ -34058,16 +34058,16 @@
         <v>37.9448292451014</v>
       </c>
       <c r="L40" t="n">
-        <v>48.55631748625889</v>
+        <v>48.55631748625888</v>
       </c>
       <c r="M40" t="n">
-        <v>51.19582869118025</v>
+        <v>51.19582869118024</v>
       </c>
       <c r="N40" t="n">
         <v>49.97850631320755</v>
       </c>
       <c r="O40" t="n">
-        <v>46.16323983590274</v>
+        <v>46.16323983590273</v>
       </c>
       <c r="P40" t="n">
         <v>39.50062662572996</v>
@@ -34076,10 +34076,10 @@
         <v>27.34818639879727</v>
       </c>
       <c r="R40" t="n">
-        <v>14.68506458891014</v>
+        <v>14.68506458891013</v>
       </c>
       <c r="S40" t="n">
-        <v>5.69172438676521</v>
+        <v>5.691724386765209</v>
       </c>
       <c r="T40" t="n">
         <v>1.395467116212649</v>
@@ -34122,28 +34122,28 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7280957475802123</v>
+        <v>0.7280957475802122</v>
       </c>
       <c r="H41" t="n">
-        <v>7.456610574905852</v>
+        <v>7.45661057490585</v>
       </c>
       <c r="I41" t="n">
         <v>28.06991130858616</v>
       </c>
       <c r="J41" t="n">
-        <v>61.79621645618611</v>
+        <v>61.79621645618609</v>
       </c>
       <c r="K41" t="n">
-        <v>92.61650945125652</v>
+        <v>92.6165094512565</v>
       </c>
       <c r="L41" t="n">
-        <v>114.8989696862645</v>
+        <v>114.8989696862644</v>
       </c>
       <c r="M41" t="n">
-        <v>127.8472424372941</v>
+        <v>127.847242437294</v>
       </c>
       <c r="N41" t="n">
-        <v>129.9159444801064</v>
+        <v>129.9159444801063</v>
       </c>
       <c r="O41" t="n">
         <v>122.6759423901056</v>
@@ -34152,19 +34152,19 @@
         <v>104.7010786217191</v>
       </c>
       <c r="Q41" t="n">
-        <v>78.62614966150271</v>
+        <v>78.62614966150269</v>
       </c>
       <c r="R41" t="n">
-        <v>45.73624450393555</v>
+        <v>45.73624450393554</v>
       </c>
       <c r="S41" t="n">
-        <v>16.59148184798411</v>
+        <v>16.5914818479841</v>
       </c>
       <c r="T41" t="n">
         <v>3.187239135032381</v>
       </c>
       <c r="U41" t="n">
-        <v>0.05824765980641698</v>
+        <v>0.05824765980641697</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,19 +34204,19 @@
         <v>0.3895655690944507</v>
       </c>
       <c r="H42" t="n">
-        <v>3.762383259412196</v>
+        <v>3.762383259412195</v>
       </c>
       <c r="I42" t="n">
-        <v>13.41267419908526</v>
+        <v>13.41267419908525</v>
       </c>
       <c r="J42" t="n">
         <v>36.80540317484019</v>
       </c>
       <c r="K42" t="n">
-        <v>62.90629630416839</v>
+        <v>62.90629630416838</v>
       </c>
       <c r="L42" t="n">
-        <v>84.58527850009116</v>
+        <v>84.58527850009115</v>
       </c>
       <c r="M42" t="n">
         <v>92.38712204931191</v>
@@ -34228,7 +34228,7 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>74.38993748786929</v>
+        <v>74.38993748786928</v>
       </c>
       <c r="Q42" t="n">
         <v>49.72770317072322</v>
@@ -34237,7 +34237,7 @@
         <v>24.18723770219757</v>
       </c>
       <c r="S42" t="n">
-        <v>7.236009583837709</v>
+        <v>7.236009583837708</v>
       </c>
       <c r="T42" t="n">
         <v>1.570222622797369</v>
@@ -34283,10 +34283,10 @@
         <v>0.3265986867731733</v>
       </c>
       <c r="H43" t="n">
-        <v>2.90375923331058</v>
+        <v>2.903759233310579</v>
       </c>
       <c r="I43" t="n">
-        <v>9.821713234960525</v>
+        <v>9.821713234960523</v>
       </c>
       <c r="J43" t="n">
         <v>23.09052715486335</v>
@@ -34295,16 +34295,16 @@
         <v>37.9448292451014</v>
       </c>
       <c r="L43" t="n">
-        <v>48.55631748625889</v>
+        <v>48.55631748625888</v>
       </c>
       <c r="M43" t="n">
-        <v>51.19582869118025</v>
+        <v>51.19582869118024</v>
       </c>
       <c r="N43" t="n">
         <v>49.97850631320755</v>
       </c>
       <c r="O43" t="n">
-        <v>46.16323983590274</v>
+        <v>46.16323983590273</v>
       </c>
       <c r="P43" t="n">
         <v>39.50062662572996</v>
@@ -34313,10 +34313,10 @@
         <v>27.34818639879727</v>
       </c>
       <c r="R43" t="n">
-        <v>14.68506458891014</v>
+        <v>14.68506458891013</v>
       </c>
       <c r="S43" t="n">
-        <v>5.69172438676521</v>
+        <v>5.691724386765209</v>
       </c>
       <c r="T43" t="n">
         <v>1.395467116212649</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.7280957475802122</v>
       </c>
       <c r="H44" t="n">
-        <v>8.558753306785931</v>
+        <v>7.45661057490585</v>
       </c>
       <c r="I44" t="n">
-        <v>32.21885383716488</v>
+        <v>28.06991130858616</v>
       </c>
       <c r="J44" t="n">
-        <v>70.93015876693009</v>
+        <v>61.79621645618609</v>
       </c>
       <c r="K44" t="n">
-        <v>106.3059212447769</v>
+        <v>92.6165094512565</v>
       </c>
       <c r="L44" t="n">
-        <v>131.8818955167212</v>
+        <v>114.8989696862644</v>
       </c>
       <c r="M44" t="n">
-        <v>146.7440196831613</v>
+        <v>127.847242437294</v>
       </c>
       <c r="N44" t="n">
-        <v>149.1184913377841</v>
+        <v>129.9159444801063</v>
       </c>
       <c r="O44" t="n">
-        <v>140.8083628676899</v>
+        <v>122.6759423901056</v>
       </c>
       <c r="P44" t="n">
-        <v>120.1766799909631</v>
+        <v>104.7010786217191</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.24768179257215</v>
+        <v>78.62614966150269</v>
       </c>
       <c r="R44" t="n">
-        <v>52.49640301793161</v>
+        <v>45.73624450393554</v>
       </c>
       <c r="S44" t="n">
-        <v>19.04382677684702</v>
+        <v>16.5914818479841</v>
       </c>
       <c r="T44" t="n">
-        <v>3.658336882749217</v>
+        <v>3.187239135032381</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.05824765980641697</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.3895655690944507</v>
       </c>
       <c r="H45" t="n">
-        <v>4.318491604115551</v>
+        <v>3.762383259412195</v>
       </c>
       <c r="I45" t="n">
-        <v>15.39516761685153</v>
+        <v>13.41267419908525</v>
       </c>
       <c r="J45" t="n">
-        <v>42.24551664135018</v>
+        <v>36.80540317484019</v>
       </c>
       <c r="K45" t="n">
-        <v>72.20431670695834</v>
+        <v>62.90629630416838</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>84.58527850009115</v>
       </c>
       <c r="M45" t="n">
         <v>92.38712204931191</v>
@@ -34465,22 +34465,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>85.38532582197224</v>
+        <v>74.38993748786928</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.07782908545822</v>
+        <v>49.72770317072322</v>
       </c>
       <c r="R45" t="n">
-        <v>27.76229207441406</v>
+        <v>24.18723770219757</v>
       </c>
       <c r="S45" t="n">
-        <v>8.305545841702701</v>
+        <v>7.236009583837708</v>
       </c>
       <c r="T45" t="n">
-        <v>1.802313253488733</v>
+        <v>1.570222622797369</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.02562931375621387</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3265986867731733</v>
       </c>
       <c r="H46" t="n">
-        <v>3.33295653441321</v>
+        <v>2.903759233310579</v>
       </c>
       <c r="I46" t="n">
-        <v>11.27343580351625</v>
+        <v>9.821713234960523</v>
       </c>
       <c r="J46" t="n">
-        <v>26.50347951751689</v>
+        <v>23.09052715486335</v>
       </c>
       <c r="K46" t="n">
-        <v>43.55335839447933</v>
+        <v>37.9448292451014</v>
       </c>
       <c r="L46" t="n">
-        <v>55.73330384845972</v>
+        <v>48.55631748625888</v>
       </c>
       <c r="M46" t="n">
-        <v>58.76295452237927</v>
+        <v>51.19582869118024</v>
       </c>
       <c r="N46" t="n">
-        <v>57.36570280549853</v>
+        <v>49.97850631320755</v>
       </c>
       <c r="O46" t="n">
-        <v>52.9865114489331</v>
+        <v>46.16323983590273</v>
       </c>
       <c r="P46" t="n">
-        <v>45.33911424727331</v>
+        <v>39.50062662572996</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.39045259558288</v>
+        <v>27.34818639879727</v>
       </c>
       <c r="R46" t="n">
-        <v>16.85562680900585</v>
+        <v>14.68506458891013</v>
       </c>
       <c r="S46" t="n">
-        <v>6.533003759171899</v>
+        <v>5.691724386765209</v>
       </c>
       <c r="T46" t="n">
-        <v>1.601727577887737</v>
+        <v>1.395467116212649</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.01781447382399129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
